--- a/pre_info_new.xlsx
+++ b/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="529" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -459,6 +459,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -471,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +574,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,7 +1025,7 @@
         <v>55</v>
       </c>
       <c r="K2" s="6">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -1052,7 +1066,7 @@
         <v>42</v>
       </c>
       <c r="K3" s="6">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -1093,7 +1107,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="6">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -1134,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="6">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1175,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1350,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1364,15 +1378,17 @@
     <col min="4" max="5" width="12.375"/>
     <col min="6" max="6" width="0" hidden="1"/>
     <col min="7" max="7" width="21.875"/>
-    <col min="10" max="10" width="21.875" style="13"/>
-    <col min="11" max="12" width="25.5" style="13"/>
-    <col min="13" max="13" width="15.625" style="13"/>
-    <col min="14" max="14" width="7.625"/>
-    <col min="15" max="15" width="16.125"/>
-    <col min="16" max="1027" width="7.625"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="21.875" style="13"/>
+    <col min="13" max="14" width="25.5" style="13"/>
+    <col min="15" max="15" width="15.625" style="13"/>
+    <col min="16" max="16" width="7.625"/>
+    <col min="17" max="17" width="16.125"/>
+    <col min="18" max="1029" width="7.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
@@ -1396,20 +1412,22 @@
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
@@ -1429,34 +1447,42 @@
         <v>1</v>
       </c>
       <c r="G2" s="18">
-        <f t="shared" ref="G2:G41" si="0">ROUND(J2*0.85,0)</f>
+        <f t="shared" ref="G2:G41" si="0">ROUND(L2*0.85,0)</f>
         <v>8500000</v>
       </c>
       <c r="H2" s="18">
+        <f>SUM(G2:G5)</f>
+        <v>11985000</v>
+      </c>
+      <c r="I2" s="18">
+        <f>H2/$G$42</f>
+        <v>0.22398017537171178</v>
+      </c>
+      <c r="J2" s="18">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>14</v>
-      </c>
-      <c r="I2" s="18">
-        <f ca="1">G2*H2/100</f>
-        <v>1190000</v>
-      </c>
-      <c r="J2" s="19">
+        <v>19</v>
+      </c>
+      <c r="K2" s="18">
+        <f ca="1">G2*J2/100</f>
+        <v>1615000</v>
+      </c>
+      <c r="L2" s="19">
         <v>10000000</v>
       </c>
-      <c r="K2" s="19">
-        <f>J2*1</f>
+      <c r="M2" s="19">
+        <f>L2*1</f>
         <v>10000000</v>
       </c>
-      <c r="L2" s="19">
-        <f>K2*0.8</f>
+      <c r="N2" s="19">
+        <f>M2*0.8</f>
         <v>8000000</v>
       </c>
-      <c r="M2" s="19">
-        <f>L2*0.8</f>
+      <c r="O2" s="19">
+        <f>N2*0.8</f>
         <v>6400000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
@@ -1479,31 +1505,36 @@
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
-      <c r="H3" s="18">
-        <f t="shared" ref="H3:H41" ca="1" si="1">RANDBETWEEN(10,20)</f>
-        <v>11</v>
-      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="18">
-        <f t="shared" ref="I3:I41" ca="1" si="2">G3*H3/100</f>
-        <v>187000</v>
-      </c>
-      <c r="J3" s="19">
+        <f t="shared" ref="I3:I41" si="1">H3/$G$42</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J41" ca="1" si="2">RANDBETWEEN(10,20)</f>
+        <v>14</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3:K41" ca="1" si="3">G3*J3/100</f>
+        <v>238000</v>
+      </c>
+      <c r="L3" s="19">
         <v>2000000</v>
-      </c>
-      <c r="K3" s="19">
-        <f>J3*0.8</f>
-        <v>1600000</v>
-      </c>
-      <c r="L3" s="19">
-        <f>K3*0.6</f>
-        <v>960000</v>
       </c>
       <c r="M3" s="19">
         <f>L3*0.8</f>
+        <v>1600000</v>
+      </c>
+      <c r="N3" s="19">
+        <f>M3*0.6</f>
+        <v>960000</v>
+      </c>
+      <c r="O3" s="19">
+        <f>N3*0.8</f>
         <v>768000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>66</v>
       </c>
@@ -1526,31 +1557,36 @@
         <f t="shared" si="0"/>
         <v>1615000</v>
       </c>
-      <c r="H4" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>242250</v>
-      </c>
-      <c r="J4" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>274550</v>
+      </c>
+      <c r="L4" s="19">
         <v>1900000</v>
       </c>
-      <c r="K4" s="19">
-        <f>J4*1.3</f>
+      <c r="M4" s="19">
+        <f>L4*1.3</f>
         <v>2470000</v>
       </c>
-      <c r="L4" s="19">
-        <f>K4*0.9</f>
+      <c r="N4" s="19">
+        <f>M4*0.9</f>
         <v>2223000</v>
       </c>
-      <c r="M4" s="19">
-        <f>L4*0.9</f>
+      <c r="O4" s="19">
+        <f>N4*0.9</f>
         <v>2000700</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
@@ -1573,31 +1609,36 @@
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="H5" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="H5" s="18"/>
       <c r="I5" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>22100</v>
-      </c>
-      <c r="J5" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>23800</v>
+      </c>
+      <c r="L5" s="19">
         <v>200000</v>
       </c>
-      <c r="K5" s="19">
-        <f>J5*1.05</f>
+      <c r="M5" s="19">
+        <f>L5*1.05</f>
         <v>210000</v>
       </c>
-      <c r="L5" s="19">
-        <f>K5*1.5</f>
+      <c r="N5" s="19">
+        <f>M5*1.5</f>
         <v>315000</v>
       </c>
-      <c r="M5" s="19">
-        <f>L5*1.3</f>
+      <c r="O5" s="19">
+        <f>N5*1.3</f>
         <v>409500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -1621,30 +1662,38 @@
         <v>2550000</v>
       </c>
       <c r="H6" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <f>SUM(G6:G9)</f>
+        <v>3740000</v>
       </c>
       <c r="I6" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>331500</v>
-      </c>
-      <c r="J6" s="19">
+        <f t="shared" si="1"/>
+        <v>6.9894522811030632E-2</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="L6" s="19">
         <v>3000000</v>
-      </c>
-      <c r="K6" s="19">
-        <f>J6*1.05</f>
-        <v>3150000</v>
-      </c>
-      <c r="L6" s="19">
-        <f>K6*1.05</f>
-        <v>3307500</v>
       </c>
       <c r="M6" s="19">
         <f>L6*1.05</f>
+        <v>3150000</v>
+      </c>
+      <c r="N6" s="19">
+        <f>M6*1.05</f>
+        <v>3307500</v>
+      </c>
+      <c r="O6" s="19">
+        <f>N6*1.05</f>
         <v>3472875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
@@ -1667,31 +1716,36 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H7" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>136000</v>
-      </c>
-      <c r="J7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>127500</v>
+      </c>
+      <c r="L7" s="19">
         <v>1000000</v>
-      </c>
-      <c r="K7" s="19">
-        <f>J7*1.1</f>
-        <v>1100000</v>
-      </c>
-      <c r="L7" s="19">
-        <f>K7*1.1</f>
-        <v>1210000</v>
       </c>
       <c r="M7" s="19">
         <f>L7*1.1</f>
+        <v>1100000</v>
+      </c>
+      <c r="N7" s="19">
+        <f>M7*1.1</f>
+        <v>1210000</v>
+      </c>
+      <c r="O7" s="19">
+        <f>N7*1.1</f>
         <v>1331000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -1714,31 +1768,36 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="H8" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>43350</v>
-      </c>
-      <c r="J8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>33150</v>
+      </c>
+      <c r="L8" s="19">
         <v>300000</v>
-      </c>
-      <c r="K8" s="19">
-        <f>J8*1.02</f>
-        <v>306000</v>
-      </c>
-      <c r="L8" s="19">
-        <f>K8*1.02</f>
-        <v>312120</v>
       </c>
       <c r="M8" s="19">
         <f>L8*1.02</f>
+        <v>306000</v>
+      </c>
+      <c r="N8" s="19">
+        <f>M8*1.02</f>
+        <v>312120</v>
+      </c>
+      <c r="O8" s="19">
+        <f>N8*1.02</f>
         <v>318362.40000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>69</v>
       </c>
@@ -1761,31 +1820,36 @@
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="H9" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>9350</v>
-      </c>
-      <c r="J9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>11900</v>
+      </c>
+      <c r="L9" s="19">
         <v>100000</v>
       </c>
-      <c r="K9" s="19">
-        <f>J9*1.05</f>
+      <c r="M9" s="19">
+        <f>L9*1.05</f>
         <v>105000</v>
       </c>
-      <c r="L9" s="19">
-        <f>K9*1.5</f>
+      <c r="N9" s="19">
+        <f>M9*1.5</f>
         <v>157500</v>
       </c>
-      <c r="M9" s="19">
-        <f>L9*1.3</f>
+      <c r="O9" s="19">
+        <f>N9*1.3</f>
         <v>204750</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>71</v>
       </c>
@@ -1809,30 +1873,38 @@
         <v>5100000</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f t="shared" ref="H10" si="4">SUM(G10:G13)</f>
+        <v>7225000</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>918000</v>
-      </c>
-      <c r="J10" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13502350997585463</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>816000</v>
+      </c>
+      <c r="L10" s="19">
         <v>6000000</v>
       </c>
-      <c r="K10" s="19">
-        <f>J10*1.6</f>
+      <c r="M10" s="19">
+        <f>L10*1.6</f>
         <v>9600000</v>
       </c>
-      <c r="L10" s="19">
-        <f>K10*1.2</f>
+      <c r="N10" s="19">
+        <f>M10*1.2</f>
         <v>11520000</v>
       </c>
-      <c r="M10" s="19">
-        <f>L10*1.1</f>
+      <c r="O10" s="19">
+        <f>N10*1.1</f>
         <v>12672000.000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>71</v>
       </c>
@@ -1855,31 +1927,36 @@
         <f t="shared" si="0"/>
         <v>1020000</v>
       </c>
-      <c r="H11" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>173400</v>
-      </c>
-      <c r="J11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>102000</v>
+      </c>
+      <c r="L11" s="19">
         <v>1200000</v>
-      </c>
-      <c r="K11" s="19">
-        <f>J11*0.9</f>
-        <v>1080000</v>
-      </c>
-      <c r="L11" s="19">
-        <f>K11*0.9</f>
-        <v>972000</v>
       </c>
       <c r="M11" s="19">
         <f>L11*0.9</f>
+        <v>1080000</v>
+      </c>
+      <c r="N11" s="19">
+        <f>M11*0.9</f>
+        <v>972000</v>
+      </c>
+      <c r="O11" s="19">
+        <f>N11*0.9</f>
         <v>874800</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>71</v>
       </c>
@@ -1902,31 +1979,36 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="H12" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>43350</v>
-      </c>
-      <c r="J12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>40800</v>
+      </c>
+      <c r="L12" s="19">
         <v>300000</v>
-      </c>
-      <c r="K12" s="19">
-        <f>J12*1.5</f>
-        <v>450000</v>
-      </c>
-      <c r="L12" s="19">
-        <f>K12*1.5</f>
-        <v>675000</v>
       </c>
       <c r="M12" s="19">
         <f>L12*1.5</f>
+        <v>450000</v>
+      </c>
+      <c r="N12" s="19">
+        <f>M12*1.5</f>
+        <v>675000</v>
+      </c>
+      <c r="O12" s="19">
+        <f>N12*1.5</f>
         <v>1012500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>71</v>
       </c>
@@ -1949,31 +2031,36 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H13" s="18">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="I13" s="18">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K13" s="18">
+        <f t="shared" ca="1" si="3"/>
         <v>119000</v>
       </c>
-      <c r="J13" s="19">
+      <c r="L13" s="19">
         <v>1000000</v>
       </c>
-      <c r="K13" s="19">
-        <f>J13*1.2</f>
+      <c r="M13" s="19">
+        <f>L13*1.2</f>
         <v>1200000</v>
       </c>
-      <c r="L13" s="19">
-        <f>K13*1.3</f>
+      <c r="N13" s="19">
+        <f>M13*1.3</f>
         <v>1560000</v>
       </c>
-      <c r="M13" s="19">
-        <f>L13*1.3</f>
+      <c r="O13" s="19">
+        <f>N13*1.3</f>
         <v>2028000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
@@ -1997,30 +2084,38 @@
         <v>4250000</v>
       </c>
       <c r="H14" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" ref="H14" si="5">SUM(G14:G17)</f>
+        <v>5882000</v>
       </c>
       <c r="I14" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>510000</v>
-      </c>
-      <c r="J14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.10992502223916635</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>850000</v>
+      </c>
+      <c r="L14" s="19">
         <v>5000000</v>
-      </c>
-      <c r="K14" s="19">
-        <f>J14*1.2</f>
-        <v>6000000</v>
-      </c>
-      <c r="L14" s="19">
-        <f>K14*1.2</f>
-        <v>7200000</v>
       </c>
       <c r="M14" s="19">
         <f>L14*1.2</f>
+        <v>6000000</v>
+      </c>
+      <c r="N14" s="19">
+        <f>M14*1.2</f>
+        <v>7200000</v>
+      </c>
+      <c r="O14" s="19">
+        <f>N14*1.2</f>
         <v>8640000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>73</v>
       </c>
@@ -2043,31 +2138,36 @@
         <f t="shared" si="0"/>
         <v>1020000</v>
       </c>
-      <c r="H15" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>102000</v>
-      </c>
-      <c r="J15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>132600</v>
+      </c>
+      <c r="L15" s="19">
         <v>1200000</v>
       </c>
-      <c r="K15" s="19">
-        <f>J15*1.1</f>
+      <c r="M15" s="19">
+        <f>L15*1.1</f>
         <v>1320000</v>
       </c>
-      <c r="L15" s="19">
-        <f>K15*1.1</f>
+      <c r="N15" s="19">
+        <f>M15*1.1</f>
         <v>1452000.0000000002</v>
       </c>
-      <c r="M15" s="19">
-        <f>L15*1</f>
+      <c r="O15" s="19">
+        <f>N15*1</f>
         <v>1452000.0000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>73</v>
       </c>
@@ -2090,31 +2190,36 @@
         <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="H16" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
+      <c r="H16" s="18"/>
       <c r="I16" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>102000</v>
-      </c>
-      <c r="J16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>76500</v>
+      </c>
+      <c r="L16" s="19">
         <v>600000</v>
       </c>
-      <c r="K16" s="19">
-        <f>J16*1.1</f>
+      <c r="M16" s="19">
+        <f>L16*1.1</f>
         <v>660000</v>
       </c>
-      <c r="L16" s="19">
-        <f>K16*1.1</f>
+      <c r="N16" s="19">
+        <f>M16*1.1</f>
         <v>726000.00000000012</v>
       </c>
-      <c r="M16" s="19">
-        <f>L16*1.5</f>
+      <c r="O16" s="19">
+        <f>N16*1.5</f>
         <v>1089000.0000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>73</v>
       </c>
@@ -2137,31 +2242,36 @@
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
-      <c r="H17" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>12240</v>
-      </c>
-      <c r="J17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>19380</v>
+      </c>
+      <c r="L17" s="19">
         <v>120000</v>
       </c>
-      <c r="K17" s="19">
-        <f t="shared" ref="K17:K23" si="3">J17*1.1</f>
+      <c r="M17" s="19">
+        <f t="shared" ref="M17:M23" si="6">L17*1.1</f>
         <v>132000</v>
       </c>
-      <c r="L17" s="19">
-        <f>K17*1.5</f>
+      <c r="N17" s="19">
+        <f>M17*1.5</f>
         <v>198000</v>
       </c>
-      <c r="M17" s="19">
-        <f>L17*1.3</f>
+      <c r="O17" s="19">
+        <f>N17*1.3</f>
         <v>257400</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
@@ -2185,30 +2295,38 @@
         <v>1530000</v>
       </c>
       <c r="H18" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f t="shared" ref="H18" si="7">SUM(G18:G21)</f>
+        <v>2261000</v>
       </c>
       <c r="I18" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>290700</v>
-      </c>
-      <c r="J18" s="19">
+        <f t="shared" si="1"/>
+        <v>4.2254416063032152E-2</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>229500</v>
+      </c>
+      <c r="L18" s="19">
         <v>1800000</v>
       </c>
-      <c r="K18" s="19">
-        <f t="shared" si="3"/>
+      <c r="M18" s="19">
+        <f t="shared" si="6"/>
         <v>1980000.0000000002</v>
       </c>
-      <c r="L18" s="19">
-        <f t="shared" ref="L18:M20" si="4">K18*1.1</f>
+      <c r="N18" s="19">
+        <f t="shared" ref="N18:O20" si="8">M18*1.1</f>
         <v>2178000.0000000005</v>
       </c>
-      <c r="M18" s="19">
-        <f t="shared" si="4"/>
+      <c r="O18" s="19">
+        <f t="shared" si="8"/>
         <v>2395800.0000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
@@ -2231,31 +2349,36 @@
         <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="H19" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="H19" s="18"/>
       <c r="I19" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>71400</v>
-      </c>
-      <c r="J19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>66300</v>
+      </c>
+      <c r="L19" s="19">
         <v>600000</v>
       </c>
-      <c r="K19" s="19">
-        <f t="shared" si="3"/>
+      <c r="M19" s="19">
+        <f t="shared" si="6"/>
         <v>660000</v>
       </c>
-      <c r="L19" s="19">
-        <f t="shared" si="4"/>
+      <c r="N19" s="19">
+        <f t="shared" si="8"/>
         <v>726000.00000000012</v>
       </c>
-      <c r="M19" s="19">
-        <f t="shared" si="4"/>
+      <c r="O19" s="19">
+        <f t="shared" si="8"/>
         <v>798600.00000000023</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>74</v>
       </c>
@@ -2278,31 +2401,36 @@
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="H20" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="H20" s="18"/>
       <c r="I20" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>23800</v>
-      </c>
-      <c r="J20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>32300</v>
+      </c>
+      <c r="L20" s="19">
         <v>200000</v>
       </c>
-      <c r="K20" s="19">
-        <f t="shared" si="3"/>
+      <c r="M20" s="19">
+        <f t="shared" si="6"/>
         <v>220000.00000000003</v>
       </c>
-      <c r="L20" s="19">
-        <f t="shared" si="4"/>
+      <c r="N20" s="19">
+        <f t="shared" si="8"/>
         <v>242000.00000000006</v>
       </c>
-      <c r="M20" s="19">
-        <f t="shared" si="4"/>
+      <c r="O20" s="19">
+        <f t="shared" si="8"/>
         <v>266200.00000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>74</v>
       </c>
@@ -2325,31 +2453,36 @@
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
-      <c r="H21" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>5100</v>
-      </c>
-      <c r="J21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7650</v>
+      </c>
+      <c r="L21" s="19">
         <v>60000</v>
       </c>
-      <c r="K21" s="19">
-        <f t="shared" si="3"/>
+      <c r="M21" s="19">
+        <f t="shared" si="6"/>
         <v>66000</v>
       </c>
-      <c r="L21" s="19">
-        <f>K21*1.5</f>
+      <c r="N21" s="19">
+        <f>M21*1.5</f>
         <v>99000</v>
       </c>
-      <c r="M21" s="19">
-        <f>L21*1.3</f>
+      <c r="O21" s="19">
+        <f>N21*1.3</f>
         <v>128700</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>75</v>
       </c>
@@ -2373,30 +2506,38 @@
         <v>3060000</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f>SUM(G22:G25)</f>
+        <v>3884500</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>336600</v>
-      </c>
-      <c r="J22" s="19">
+        <f t="shared" si="1"/>
+        <v>7.2594993010547712E-2</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>397800</v>
+      </c>
+      <c r="L22" s="19">
         <v>3600000</v>
       </c>
-      <c r="K22" s="19">
-        <f t="shared" si="3"/>
+      <c r="M22" s="19">
+        <f t="shared" si="6"/>
         <v>3960000.0000000005</v>
       </c>
-      <c r="L22" s="19">
-        <f>K22*0.6</f>
+      <c r="N22" s="19">
+        <f>M22*0.6</f>
         <v>2376000</v>
       </c>
-      <c r="M22" s="19">
-        <f>L22*0.9</f>
+      <c r="O22" s="19">
+        <f>N22*0.9</f>
         <v>2138400</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>75</v>
       </c>
@@ -2419,31 +2560,36 @@
         <f t="shared" si="0"/>
         <v>612000</v>
       </c>
-      <c r="H23" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
+      <c r="H23" s="18"/>
       <c r="I23" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>116280</v>
-      </c>
-      <c r="J23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>97920</v>
+      </c>
+      <c r="L23" s="19">
         <v>720000</v>
       </c>
-      <c r="K23" s="19">
-        <f t="shared" si="3"/>
+      <c r="M23" s="19">
+        <f t="shared" si="6"/>
         <v>792000.00000000012</v>
       </c>
-      <c r="L23" s="19">
-        <f>K23*1.1</f>
+      <c r="N23" s="19">
+        <f>M23*1.1</f>
         <v>871200.00000000023</v>
       </c>
-      <c r="M23" s="19">
-        <f>L23*1.1</f>
+      <c r="O23" s="19">
+        <f>N23*1.1</f>
         <v>958320.00000000035</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
         <v>75</v>
       </c>
@@ -2466,31 +2612,36 @@
         <f t="shared" si="0"/>
         <v>212500</v>
       </c>
-      <c r="H24" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="H24" s="18"/>
       <c r="I24" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>29750</v>
-      </c>
-      <c r="J24" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>25500</v>
+      </c>
+      <c r="L24" s="19">
         <v>250000</v>
-      </c>
-      <c r="K24" s="19">
-        <f>J24*1.2</f>
-        <v>300000</v>
-      </c>
-      <c r="L24" s="19">
-        <f>K24*1.2</f>
-        <v>360000</v>
       </c>
       <c r="M24" s="19">
         <f>L24*1.2</f>
+        <v>300000</v>
+      </c>
+      <c r="N24" s="19">
+        <f>M24*1.2</f>
+        <v>360000</v>
+      </c>
+      <c r="O24" s="19">
+        <f>N24*1.2</f>
         <v>432000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
@@ -2513,20 +2664,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
+      <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2550,30 +2706,38 @@
         <v>2550000</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f>SUM(G26:G29)</f>
+        <v>3553000</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>280500</v>
-      </c>
-      <c r="J26" s="19">
+        <f t="shared" si="1"/>
+        <v>6.63997966704791E-2</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>459000</v>
+      </c>
+      <c r="L26" s="19">
         <v>3000000</v>
-      </c>
-      <c r="K26" s="19">
-        <f>J26*1.1</f>
-        <v>3300000.0000000005</v>
-      </c>
-      <c r="L26" s="19">
-        <f>K26*1.1</f>
-        <v>3630000.0000000009</v>
       </c>
       <c r="M26" s="19">
         <f>L26*1.1</f>
+        <v>3300000.0000000005</v>
+      </c>
+      <c r="N26" s="19">
+        <f>M26*1.1</f>
+        <v>3630000.0000000009</v>
+      </c>
+      <c r="O26" s="19">
+        <f>N26*1.1</f>
         <v>3993000.0000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>76</v>
       </c>
@@ -2596,31 +2760,36 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H27" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>144500</v>
-      </c>
-      <c r="J27" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>127500</v>
+      </c>
+      <c r="L27" s="19">
         <v>1000000</v>
       </c>
-      <c r="K27" s="19">
-        <f>J27*1.4</f>
+      <c r="M27" s="19">
+        <f>L27*1.4</f>
         <v>1400000</v>
       </c>
-      <c r="L27" s="19">
-        <f>K27*1.3</f>
+      <c r="N27" s="19">
+        <f>M27*1.3</f>
         <v>1820000</v>
       </c>
-      <c r="M27" s="19">
-        <f>L27*1.3</f>
+      <c r="O27" s="19">
+        <f>N27*1.3</f>
         <v>2366000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
         <v>76</v>
       </c>
@@ -2643,31 +2812,36 @@
         <f t="shared" si="0"/>
         <v>153000</v>
       </c>
-      <c r="H28" s="18">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>18</v>
       </c>
-      <c r="I28" s="18">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K28" s="18">
+        <f t="shared" ca="1" si="3"/>
         <v>27540</v>
       </c>
-      <c r="J28" s="19">
+      <c r="L28" s="19">
         <v>180000</v>
-      </c>
-      <c r="K28" s="19">
-        <f>J28*1.2</f>
-        <v>216000</v>
-      </c>
-      <c r="L28" s="19">
-        <f>K28*1.2</f>
-        <v>259200</v>
       </c>
       <c r="M28" s="19">
         <f>L28*1.2</f>
+        <v>216000</v>
+      </c>
+      <c r="N28" s="19">
+        <f>M28*1.2</f>
+        <v>259200</v>
+      </c>
+      <c r="O28" s="19">
+        <f>N28*1.2</f>
         <v>311040</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
         <v>76</v>
       </c>
@@ -2690,26 +2864,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
+      <c r="H29" s="18"/>
       <c r="I29" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19">
-        <f>K29*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="19">
-        <f>L29*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19">
+        <f>M29*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="19">
+        <f>N29*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -2733,30 +2912,38 @@
         <v>918000</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <f t="shared" ref="H30" si="9">SUM(G30:G33)</f>
+        <v>1258000</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>156060</v>
-      </c>
-      <c r="J30" s="19">
+        <f t="shared" si="1"/>
+        <v>2.3509975854619392E-2</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>128520</v>
+      </c>
+      <c r="L30" s="19">
         <v>1080000</v>
       </c>
-      <c r="K30" s="19">
-        <f t="shared" ref="K30:M31" si="5">J30*1.1</f>
+      <c r="M30" s="19">
+        <f t="shared" ref="M30:O31" si="10">L30*1.1</f>
         <v>1188000</v>
       </c>
-      <c r="L30" s="19">
-        <f t="shared" si="5"/>
+      <c r="N30" s="19">
+        <f t="shared" si="10"/>
         <v>1306800</v>
       </c>
-      <c r="M30" s="19">
-        <f t="shared" si="5"/>
+      <c r="O30" s="19">
+        <f t="shared" si="10"/>
         <v>1437480</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -2779,31 +2966,36 @@
         <f t="shared" si="0"/>
         <v>306000</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="H31" s="18"/>
       <c r="I31" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>30600</v>
-      </c>
-      <c r="J31" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>48960</v>
+      </c>
+      <c r="L31" s="19">
         <v>360000</v>
       </c>
-      <c r="K31" s="19">
-        <f t="shared" si="5"/>
+      <c r="M31" s="19">
+        <f t="shared" si="10"/>
         <v>396000.00000000006</v>
       </c>
-      <c r="L31" s="19">
-        <f t="shared" si="5"/>
+      <c r="N31" s="19">
+        <f t="shared" si="10"/>
         <v>435600.00000000012</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" si="5"/>
+      <c r="O31" s="19">
+        <f t="shared" si="10"/>
         <v>479160.00000000017</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
@@ -2826,31 +3018,36 @@
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="H32" s="18">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
-      <c r="I32" s="18">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K32" s="18">
+        <f t="shared" ca="1" si="3"/>
         <v>3740</v>
       </c>
-      <c r="J32" s="19">
+      <c r="L32" s="19">
         <v>40000</v>
-      </c>
-      <c r="K32" s="19">
-        <f>J32*1.05</f>
-        <v>42000</v>
-      </c>
-      <c r="L32" s="19">
-        <f>K32*1.05</f>
-        <v>44100</v>
       </c>
       <c r="M32" s="19">
         <f>L32*1.05</f>
+        <v>42000</v>
+      </c>
+      <c r="N32" s="19">
+        <f>M32*1.05</f>
+        <v>44100</v>
+      </c>
+      <c r="O32" s="19">
+        <f>N32*1.05</f>
         <v>46305</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
@@ -2873,23 +3070,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="H33" s="18"/>
       <c r="I33" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19">
-        <f>J33*1.3</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M33" s="19">
+        <f>L33*1.3</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
         <v>79</v>
       </c>
@@ -2913,30 +3115,38 @@
         <v>612000</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="H34" si="11">SUM(G34:G37)</f>
+        <v>1310700</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>61200</v>
-      </c>
-      <c r="J34" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4494853221502098E-2</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>104040</v>
+      </c>
+      <c r="L34" s="19">
         <v>720000</v>
-      </c>
-      <c r="K34" s="19">
-        <f>J34*1.3</f>
-        <v>936000</v>
-      </c>
-      <c r="L34" s="19">
-        <f>K34*1.3</f>
-        <v>1216800</v>
       </c>
       <c r="M34" s="19">
         <f>L34*1.3</f>
+        <v>936000</v>
+      </c>
+      <c r="N34" s="19">
+        <f>M34*1.3</f>
+        <v>1216800</v>
+      </c>
+      <c r="O34" s="19">
+        <f>N34*1.3</f>
         <v>1581840</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>79</v>
       </c>
@@ -2959,31 +3169,36 @@
         <f t="shared" si="0"/>
         <v>367200</v>
       </c>
-      <c r="H35" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
+      <c r="H35" s="18"/>
       <c r="I35" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>66096</v>
-      </c>
-      <c r="J35" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>69768</v>
+      </c>
+      <c r="L35" s="19">
         <v>432000</v>
       </c>
-      <c r="K35" s="19">
-        <f t="shared" ref="K35:M36" si="6">J35</f>
+      <c r="M35" s="19">
+        <f t="shared" ref="M35:O36" si="12">L35</f>
         <v>432000</v>
       </c>
-      <c r="L35" s="19">
-        <f t="shared" si="6"/>
+      <c r="N35" s="19">
+        <f t="shared" si="12"/>
         <v>432000</v>
       </c>
-      <c r="M35" s="19">
-        <f t="shared" si="6"/>
+      <c r="O35" s="19">
+        <f t="shared" si="12"/>
         <v>432000</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>79</v>
       </c>
@@ -3006,31 +3221,36 @@
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="H36" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
+      <c r="H36" s="18"/>
       <c r="I36" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>9350</v>
-      </c>
-      <c r="J36" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K36" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>12750</v>
+      </c>
+      <c r="L36" s="19">
         <v>100000</v>
       </c>
-      <c r="K36" s="19">
-        <f t="shared" si="6"/>
+      <c r="M36" s="19">
+        <f t="shared" si="12"/>
         <v>100000</v>
       </c>
-      <c r="L36" s="19">
-        <f t="shared" si="6"/>
+      <c r="N36" s="19">
+        <f t="shared" si="12"/>
         <v>100000</v>
       </c>
-      <c r="M36" s="19">
-        <f t="shared" si="6"/>
+      <c r="O36" s="19">
+        <f t="shared" si="12"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>79</v>
       </c>
@@ -3053,31 +3273,36 @@
         <f t="shared" si="0"/>
         <v>246500</v>
       </c>
-      <c r="H37" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
+      <c r="H37" s="18"/>
       <c r="I37" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>34510</v>
-      </c>
-      <c r="J37" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>41905</v>
+      </c>
+      <c r="L37" s="19">
         <v>290000</v>
       </c>
-      <c r="K37" s="19">
-        <f>J37*1.5</f>
+      <c r="M37" s="19">
+        <f>L37*1.5</f>
         <v>435000</v>
       </c>
-      <c r="L37" s="19">
-        <f>K37*1.3</f>
+      <c r="N37" s="19">
+        <f>M37*1.3</f>
         <v>565500</v>
       </c>
-      <c r="M37" s="19">
-        <f>L37*1.3</f>
+      <c r="O37" s="19">
+        <f>N37*1.3</f>
         <v>735150</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
         <v>80</v>
       </c>
@@ -3101,30 +3326,38 @@
         <v>10200000</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" ref="H38" si="13">SUM(G38:G41)</f>
+        <v>12410000</v>
       </c>
       <c r="I38" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>1224000</v>
-      </c>
-      <c r="J38" s="19">
+        <f t="shared" si="1"/>
+        <v>0.23192273478205616</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1122000</v>
+      </c>
+      <c r="L38" s="19">
         <v>12000000</v>
       </c>
-      <c r="K38" s="19">
-        <f t="shared" ref="K38:M39" si="7">J38*0.9</f>
+      <c r="M38" s="19">
+        <f t="shared" ref="M38:O39" si="14">L38*0.9</f>
         <v>10800000</v>
       </c>
-      <c r="L38" s="19">
-        <f t="shared" si="7"/>
+      <c r="N38" s="19">
+        <f t="shared" si="14"/>
         <v>9720000</v>
       </c>
-      <c r="M38" s="19">
-        <f t="shared" si="7"/>
+      <c r="O38" s="19">
+        <f t="shared" si="14"/>
         <v>8748000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
         <v>80</v>
       </c>
@@ -3147,31 +3380,36 @@
         <f t="shared" si="0"/>
         <v>1105000</v>
       </c>
-      <c r="H39" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="H39" s="18"/>
       <c r="I39" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>132600</v>
-      </c>
-      <c r="J39" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>143650</v>
+      </c>
+      <c r="L39" s="19">
         <v>1300000</v>
       </c>
-      <c r="K39" s="19">
-        <f t="shared" si="7"/>
+      <c r="M39" s="19">
+        <f t="shared" si="14"/>
         <v>1170000</v>
       </c>
-      <c r="L39" s="19">
-        <f t="shared" si="7"/>
+      <c r="N39" s="19">
+        <f t="shared" si="14"/>
         <v>1053000</v>
       </c>
-      <c r="M39" s="19">
-        <f t="shared" si="7"/>
+      <c r="O39" s="19">
+        <f t="shared" si="14"/>
         <v>947700</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
         <v>80</v>
       </c>
@@ -3194,31 +3432,36 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H40" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
+      <c r="H40" s="18"/>
       <c r="I40" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>136000</v>
-      </c>
-      <c r="J40" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K40" s="18">
+        <f t="shared" ca="1" si="3"/>
+        <v>161500</v>
+      </c>
+      <c r="L40" s="19">
         <v>1000000</v>
-      </c>
-      <c r="K40" s="19">
-        <f>J40*1.4</f>
-        <v>1400000</v>
-      </c>
-      <c r="L40" s="19">
-        <f>K40*1.4</f>
-        <v>1959999.9999999998</v>
       </c>
       <c r="M40" s="19">
         <f>L40*1.4</f>
+        <v>1400000</v>
+      </c>
+      <c r="N40" s="19">
+        <f>M40*1.4</f>
+        <v>1959999.9999999998</v>
+      </c>
+      <c r="O40" s="19">
+        <f>N40*1.4</f>
         <v>2743999.9999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>80</v>
       </c>
@@ -3241,149 +3484,160 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="H41" s="18">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-      <c r="I41" s="18">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K41" s="18">
+        <f t="shared" ca="1" si="3"/>
         <v>51000</v>
       </c>
-      <c r="J41" s="19">
+      <c r="L41" s="19">
         <v>300000</v>
       </c>
-      <c r="K41" s="19">
-        <f>J41*1.1</f>
+      <c r="M41" s="19">
+        <f>L41*1.1</f>
         <v>330000</v>
       </c>
-      <c r="L41" s="19">
-        <f>K41*1.5</f>
+      <c r="N41" s="19">
+        <f>M41*1.5</f>
         <v>495000</v>
       </c>
-      <c r="M41" s="19">
-        <f>L41*1.3</f>
+      <c r="O41" s="19">
+        <f>N41*1.3</f>
         <v>643500</v>
       </c>
     </row>
-    <row r="53" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I54" s="18"/>
-    </row>
-    <row r="55" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I73" s="18"/>
-    </row>
-    <row r="74" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I74" s="18"/>
-    </row>
-    <row r="75" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I75" s="18"/>
-    </row>
-    <row r="76" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I76" s="18"/>
-    </row>
-    <row r="77" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I77" s="18"/>
-    </row>
-    <row r="78" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I78" s="18"/>
-    </row>
-    <row r="79" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I79" s="18"/>
-    </row>
-    <row r="80" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I80" s="18"/>
-    </row>
-    <row r="81" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I81" s="18"/>
-    </row>
-    <row r="82" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I82" s="18"/>
-    </row>
-    <row r="83" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I86" s="18"/>
-    </row>
-    <row r="87" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I87" s="18"/>
-    </row>
-    <row r="88" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I88" s="18"/>
-    </row>
-    <row r="89" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I89" s="18"/>
-    </row>
-    <row r="90" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="9:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I92" s="18"/>
+    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G42" s="31">
+        <f>SUM(G2:G41)</f>
+        <v>53509200</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K92" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3396,7 +3650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3754,7 @@
       </c>
       <c r="H2" s="22">
         <f ca="1">IF(G2&gt;50,G2-RANDBETWEEN(20,40),G2)</f>
-        <v>17.728006222884297</v>
+        <v>28.728006222884297</v>
       </c>
       <c r="I2" s="22">
         <v>1530000</v>
@@ -3624,21 +3878,21 @@
       </c>
       <c r="D4" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>65.407609886342598</v>
+        <v>64.407609886342598</v>
       </c>
       <c r="E4" s="22">
         <v>81.944632288927195</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>45.944632288927195</v>
+        <v>49.944632288927195</v>
       </c>
       <c r="G4" s="22">
         <v>87.504301710583405</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>49.504301710583405</v>
+        <v>56.504301710583405</v>
       </c>
       <c r="I4" s="22">
         <v>274550</v>
@@ -3759,21 +4013,21 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>29.982642594954299</v>
+        <v>25.982642594954299</v>
       </c>
       <c r="E6" s="22">
         <v>65.084634226865603</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>34.084634226865603</v>
+        <v>29.084634226865603</v>
       </c>
       <c r="G6" s="22">
         <v>60.843324587258998</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>32.843324587258998</v>
+        <v>24.843324587258998</v>
       </c>
       <c r="I6" s="22">
         <v>331500</v>
@@ -3828,21 +4082,21 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>63.6979278343575</v>
+        <v>52.6979278343575</v>
       </c>
       <c r="E7" s="22">
         <v>88.918552155937206</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>58.918552155937206</v>
+        <v>51.918552155937206</v>
       </c>
       <c r="G7" s="22">
         <v>92.800818220229502</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>55.800818220229502</v>
+        <v>66.800818220229502</v>
       </c>
       <c r="I7" s="22">
         <v>144500</v>
@@ -3896,21 +4150,21 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>57.502820818951605</v>
+        <v>53.502820818951605</v>
       </c>
       <c r="E8" s="22">
         <v>97.357643039927893</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>61.357643039927893</v>
+        <v>66.357643039927893</v>
       </c>
       <c r="G8" s="22">
         <v>90.254691340935807</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>63.254691340935807</v>
+        <v>61.254691340935807</v>
       </c>
       <c r="I8" s="22">
         <v>51000</v>
@@ -4031,7 +4285,7 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>53.146287186881096</v>
+        <v>48.146287186881096</v>
       </c>
       <c r="E10" s="22">
         <v>45.773729669997799</v>
@@ -4045,7 +4299,7 @@
       </c>
       <c r="H10" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>38.469270424975704</v>
+        <v>35.469270424975704</v>
       </c>
       <c r="I10" s="22">
         <v>867000</v>
@@ -4169,14 +4423,14 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>55.398280432603897</v>
+        <v>56.398280432603897</v>
       </c>
       <c r="E12" s="22">
         <v>74.365303392325799</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>38.365303392325799</v>
+        <v>39.365303392325799</v>
       </c>
       <c r="G12" s="22">
         <v>40.235292155920902</v>
@@ -4305,21 +4559,21 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>38.912100010886903</v>
+        <v>48.912100010886903</v>
       </c>
       <c r="E14" s="22">
         <v>51.931673839357202</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.931673839357202</v>
+        <v>19.931673839357202</v>
       </c>
       <c r="G14" s="22">
         <v>56.240073696511097</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>35.240073696511097</v>
+        <v>16.240073696511097</v>
       </c>
       <c r="I14" s="22">
         <v>807500</v>
@@ -4374,21 +4628,21 @@
       </c>
       <c r="D15" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>35.780923010992595</v>
+        <v>32.780923010992595</v>
       </c>
       <c r="E15" s="22">
         <v>96.849469145911698</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>60.849469145911698</v>
+        <v>66.849469145911698</v>
       </c>
       <c r="G15" s="22">
         <v>74.013118143223906</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>43.013118143223906</v>
+        <v>52.013118143223906</v>
       </c>
       <c r="I15" s="22">
         <v>153000</v>
@@ -4442,7 +4696,7 @@
       </c>
       <c r="D16" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>40.257253168040002</v>
+        <v>25.257253168040002</v>
       </c>
       <c r="E16" s="22">
         <v>41.984468616498397</v>
@@ -4592,7 +4846,7 @@
       </c>
       <c r="H18" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>16.297651238853298</v>
+        <v>31.297651238853298</v>
       </c>
       <c r="I18" s="22">
         <v>306000</v>
@@ -4647,21 +4901,21 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>55.284159132519207</v>
+        <v>57.284159132519207</v>
       </c>
       <c r="E19" s="22">
         <v>77.209841609210699</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>47.209841609210699</v>
+        <v>37.209841609210699</v>
       </c>
       <c r="G19" s="22">
         <v>74.691605117434307</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>43.691605117434307</v>
+        <v>35.691605117434307</v>
       </c>
       <c r="I19" s="22">
         <v>71400</v>
@@ -4716,21 +4970,21 @@
       </c>
       <c r="D20" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>55.373579741634302</v>
+        <v>49.373579741634302</v>
       </c>
       <c r="E20" s="22">
         <v>67.260214003427805</v>
       </c>
       <c r="F20" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>37.260214003427805</v>
+        <v>36.260214003427805</v>
       </c>
       <c r="G20" s="22">
         <v>69.354869767093902</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>48.354869767093902</v>
+        <v>39.354869767093902</v>
       </c>
       <c r="I20" s="22">
         <v>27200</v>
@@ -4852,21 +5106,21 @@
       </c>
       <c r="D22" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>24.9691136374283</v>
+        <v>35.9691136374283</v>
       </c>
       <c r="E22" s="22">
         <v>88.702838630743301</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>52.702838630743301</v>
+        <v>51.702838630743301</v>
       </c>
       <c r="G22" s="22">
         <v>64.625217876508103</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>34.625217876508103</v>
+        <v>35.625217876508103</v>
       </c>
       <c r="I22" s="22">
         <v>428400</v>
@@ -4920,21 +5174,21 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>48.577724868321198</v>
+        <v>34.577724868321198</v>
       </c>
       <c r="E23" s="22">
         <v>96.768757535454498</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>61.768757535454498</v>
+        <v>58.768757535454498</v>
       </c>
       <c r="G23" s="22">
         <v>86.931914079021894</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>52.931914079021894</v>
+        <v>58.931914079021894</v>
       </c>
       <c r="I23" s="22">
         <v>110160</v>
@@ -4988,21 +5242,21 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>57.852845347468005</v>
+        <v>67.852845347468005</v>
       </c>
       <c r="E24" s="22">
         <v>62.964620274854298</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>31.964620274854298</v>
+        <v>29.964620274854298</v>
       </c>
       <c r="G24" s="22">
         <v>72.677555050291204</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>35.677555050291204</v>
+        <v>52.677555050291204</v>
       </c>
       <c r="I24" s="22">
         <v>36125</v>
@@ -5122,21 +5376,21 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>64.640525752255996</v>
+        <v>54.640525752255996</v>
       </c>
       <c r="E26" s="22">
         <v>68.438954971368304</v>
       </c>
       <c r="F26" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>37.438954971368304</v>
+        <v>28.438954971368304</v>
       </c>
       <c r="G26" s="22">
         <v>71.156200370822802</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>34.156200370822802</v>
+        <v>49.156200370822802</v>
       </c>
       <c r="I26" s="22">
         <v>484500</v>
@@ -5191,21 +5445,21 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>35.892650443919898</v>
+        <v>28.892650443919898</v>
       </c>
       <c r="E27" s="22">
         <v>69.554799831059498</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>29.554799831059498</v>
+        <v>32.554799831059498</v>
       </c>
       <c r="G27" s="22">
         <v>66.788227650288505</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>28.788227650288505</v>
+        <v>44.788227650288505</v>
       </c>
       <c r="I27" s="22">
         <v>161500</v>
@@ -5260,21 +5514,21 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>31.528185574118496</v>
+        <v>30.528185574118496</v>
       </c>
       <c r="E28" s="22">
         <v>76.746853346961203</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>41.746853346961203</v>
+        <v>40.746853346961203</v>
       </c>
       <c r="G28" s="22">
         <v>65.255558187510402</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>28.255558187510402</v>
+        <v>42.255558187510402</v>
       </c>
       <c r="I28" s="22">
         <v>21420</v>
@@ -5395,21 +5649,21 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>14.828549160373697</v>
+        <v>25.828549160373697</v>
       </c>
       <c r="E30" s="22">
         <v>96.702746341161699</v>
       </c>
       <c r="F30" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>59.702746341161699</v>
+        <v>64.702746341161699</v>
       </c>
       <c r="G30" s="22">
         <v>57.768472260888899</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>31.768472260888899</v>
+        <v>21.768472260888899</v>
       </c>
       <c r="I30" s="22">
         <v>91800</v>
@@ -5463,21 +5717,21 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>72.131050774746797</v>
+        <v>73.131050774746797</v>
       </c>
       <c r="E31" s="22">
         <v>78.727087450519505</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>46.727087450519505</v>
+        <v>41.727087450519505</v>
       </c>
       <c r="G31" s="22">
         <v>93.2190964326646</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>66.2190964326646</v>
+        <v>62.2190964326646</v>
       </c>
       <c r="I31" s="22">
         <v>42840</v>
@@ -5532,21 +5786,21 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>36.569294304886498</v>
+        <v>35.569294304886498</v>
       </c>
       <c r="E32" s="22">
         <v>90.016012543431003</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>51.016012543431003</v>
+        <v>60.016012543431003</v>
       </c>
       <c r="G32" s="22">
         <v>69.122041107869407</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>47.122041107869407</v>
+        <v>43.122041107869407</v>
       </c>
       <c r="I32" s="22">
         <v>6460</v>
@@ -5667,21 +5921,21 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43.393615526151393</v>
+        <v>47.393615526151393</v>
       </c>
       <c r="E34" s="22">
         <v>91.667260772056807</v>
       </c>
       <c r="F34" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>57.667260772056807</v>
+        <v>60.667260772056807</v>
       </c>
       <c r="G34" s="22">
         <v>85.391531818031794</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>57.391531818031794</v>
+        <v>54.391531818031794</v>
       </c>
       <c r="I34" s="22">
         <v>104040</v>
@@ -5736,21 +5990,21 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>51.081763487992305</v>
+        <v>64.081763487992305</v>
       </c>
       <c r="E35" s="22">
         <v>91.366518349443893</v>
       </c>
       <c r="F35" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>53.366518349443893</v>
+        <v>52.366518349443893</v>
       </c>
       <c r="G35" s="22">
         <v>87.429520019759295</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>49.429520019759295</v>
+        <v>63.429520019759295</v>
       </c>
       <c r="I35" s="22">
         <v>44064</v>
@@ -5805,21 +6059,21 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>38.428186667109102</v>
+        <v>28.428186667109102</v>
       </c>
       <c r="E36" s="22">
         <v>74.411249681110604</v>
       </c>
       <c r="F36" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>37.411249681110604</v>
+        <v>40.411249681110604</v>
       </c>
       <c r="G36" s="22">
         <v>67.742289691553907</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>41.742289691553907</v>
+        <v>39.742289691553907</v>
       </c>
       <c r="I36" s="22">
         <v>15300</v>
@@ -5941,21 +6195,21 @@
       </c>
       <c r="D38" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>21.6769490027797</v>
+        <v>23.6769490027797</v>
       </c>
       <c r="E38" s="22">
         <v>64.128351521675796</v>
       </c>
       <c r="F38" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>28.128351521675796</v>
+        <v>25.128351521675796</v>
       </c>
       <c r="G38" s="22">
         <v>51.288012491385999</v>
       </c>
       <c r="H38" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>16.288012491385999</v>
+        <v>25.288012491385999</v>
       </c>
       <c r="I38" s="22">
         <v>1020000</v>
@@ -6010,21 +6264,21 @@
       </c>
       <c r="D39" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>29.215570741289604</v>
+        <v>25.215570741289604</v>
       </c>
       <c r="E39" s="22">
         <v>73.969388485817205</v>
       </c>
       <c r="F39" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>34.969388485817205</v>
+        <v>42.969388485817205</v>
       </c>
       <c r="G39" s="22">
         <v>63.878387979696903</v>
       </c>
       <c r="H39" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>35.878387979696903</v>
+        <v>32.878387979696903</v>
       </c>
       <c r="I39" s="22">
         <v>121550</v>
@@ -6079,21 +6333,21 @@
       </c>
       <c r="D40" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>63.523928816641401</v>
+        <v>51.523928816641401</v>
       </c>
       <c r="E40" s="22">
         <v>77.560645581297294</v>
       </c>
       <c r="F40" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>37.560645581297294</v>
+        <v>44.560645581297294</v>
       </c>
       <c r="G40" s="22">
         <v>87.321888182308797</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>66.321888182308797</v>
+        <v>56.321888182308797</v>
       </c>
       <c r="I40" s="22">
         <v>153000</v>

--- a/pre_info_new.xlsx
+++ b/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="529"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="529" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="flm_target" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pp_info!$A$1:$P$41</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">pp_info!$A$1:$P$41</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">pp_info!$A$1:$P$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">pp_info!$A$1:$P$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">pp_info!$A$1:$P$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$P$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="107">
   <si>
     <t>业务代表</t>
   </si>
@@ -353,25 +353,17 @@
   </si>
   <si>
     <t>target</t>
-  </si>
-  <si>
-    <t>market share</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>real_revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -482,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,12 +561,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -884,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1364,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,17 +1364,15 @@
     <col min="4" max="5" width="12.375"/>
     <col min="6" max="6" width="0" hidden="1"/>
     <col min="7" max="7" width="21.875"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="21.875" style="13"/>
-    <col min="13" max="14" width="25.5" style="13"/>
-    <col min="15" max="15" width="15.625" style="13"/>
-    <col min="16" max="16" width="7.625"/>
-    <col min="17" max="17" width="16.125"/>
-    <col min="18" max="1029" width="7.625"/>
+    <col min="8" max="8" width="21.875" style="13"/>
+    <col min="9" max="10" width="25.5" style="13"/>
+    <col min="11" max="11" width="15.625" style="13"/>
+    <col min="12" max="12" width="7.625"/>
+    <col min="13" max="13" width="16.125"/>
+    <col min="14" max="1025" width="7.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
@@ -1410,24 +1394,20 @@
       <c r="G1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
@@ -1447,42 +1427,26 @@
         <v>1</v>
       </c>
       <c r="G2" s="18">
-        <f t="shared" ref="G2:G41" si="0">ROUND(L2*0.85,0)</f>
+        <f t="shared" ref="G2:G41" si="0">ROUND(H2*0.85,0)</f>
         <v>8500000</v>
       </c>
-      <c r="H2" s="18">
-        <f>SUM(G2:G5)</f>
-        <v>11985000</v>
-      </c>
-      <c r="I2" s="18">
-        <f>H2/$G$42</f>
-        <v>0.22398017537171178</v>
-      </c>
-      <c r="J2" s="18">
-        <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>19</v>
-      </c>
-      <c r="K2" s="18">
-        <f ca="1">G2*J2/100</f>
-        <v>1615000</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="H2" s="19">
         <v>10000000</v>
       </c>
-      <c r="M2" s="19">
-        <f>L2*1</f>
+      <c r="I2" s="19">
+        <f>H2*1</f>
         <v>10000000</v>
       </c>
-      <c r="N2" s="19">
-        <f>M2*0.8</f>
+      <c r="J2" s="19">
+        <f>I2*0.8</f>
         <v>8000000</v>
       </c>
-      <c r="O2" s="19">
-        <f>N2*0.8</f>
+      <c r="K2" s="19">
+        <f>J2*0.8</f>
         <v>6400000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
@@ -1505,36 +1469,23 @@
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18">
-        <f t="shared" ref="I3:I41" si="1">H3/$G$42</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <f t="shared" ref="J3:J41" ca="1" si="2">RANDBETWEEN(10,20)</f>
-        <v>14</v>
-      </c>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:K41" ca="1" si="3">G3*J3/100</f>
-        <v>238000</v>
-      </c>
-      <c r="L3" s="19">
+      <c r="H3" s="19">
         <v>2000000</v>
       </c>
-      <c r="M3" s="19">
-        <f>L3*0.8</f>
+      <c r="I3" s="19">
+        <f>H3*0.8</f>
         <v>1600000</v>
       </c>
-      <c r="N3" s="19">
-        <f>M3*0.6</f>
+      <c r="J3" s="19">
+        <f>I3*0.6</f>
         <v>960000</v>
       </c>
-      <c r="O3" s="19">
-        <f>N3*0.8</f>
+      <c r="K3" s="19">
+        <f>J3*0.8</f>
         <v>768000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>66</v>
       </c>
@@ -1557,36 +1508,23 @@
         <f t="shared" si="0"/>
         <v>1615000</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>274550</v>
-      </c>
-      <c r="L4" s="19">
+      <c r="H4" s="19">
         <v>1900000</v>
       </c>
-      <c r="M4" s="19">
-        <f>L4*1.3</f>
+      <c r="I4" s="19">
+        <f>H4*1.3</f>
         <v>2470000</v>
       </c>
-      <c r="N4" s="19">
-        <f>M4*0.9</f>
+      <c r="J4" s="19">
+        <f>I4*0.9</f>
         <v>2223000</v>
       </c>
-      <c r="O4" s="19">
-        <f>N4*0.9</f>
+      <c r="K4" s="19">
+        <f>J4*0.9</f>
         <v>2000700</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
@@ -1609,36 +1547,23 @@
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>23800</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="H5" s="19">
         <v>200000</v>
       </c>
-      <c r="M5" s="19">
-        <f>L5*1.05</f>
+      <c r="I5" s="19">
+        <f>H5*1.05</f>
         <v>210000</v>
       </c>
-      <c r="N5" s="19">
-        <f>M5*1.5</f>
+      <c r="J5" s="19">
+        <f>I5*1.5</f>
         <v>315000</v>
       </c>
-      <c r="O5" s="19">
-        <f>N5*1.3</f>
+      <c r="K5" s="19">
+        <f>J5*1.3</f>
         <v>409500</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
@@ -1661,39 +1586,23 @@
         <f t="shared" si="0"/>
         <v>2550000</v>
       </c>
-      <c r="H6" s="18">
-        <f>SUM(G6:G9)</f>
-        <v>3740000</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>6.9894522811030632E-2</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>255000</v>
-      </c>
-      <c r="L6" s="19">
+      <c r="H6" s="19">
         <v>3000000</v>
       </c>
-      <c r="M6" s="19">
-        <f>L6*1.05</f>
+      <c r="I6" s="19">
+        <f>H6*1.05</f>
         <v>3150000</v>
       </c>
-      <c r="N6" s="19">
-        <f>M6*1.05</f>
+      <c r="J6" s="19">
+        <f>I6*1.05</f>
         <v>3307500</v>
       </c>
-      <c r="O6" s="19">
-        <f>N6*1.05</f>
+      <c r="K6" s="19">
+        <f>J6*1.05</f>
         <v>3472875</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
@@ -1716,36 +1625,23 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>127500</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="H7" s="19">
         <v>1000000</v>
       </c>
-      <c r="M7" s="19">
-        <f>L7*1.1</f>
+      <c r="I7" s="19">
+        <f>H7*1.1</f>
         <v>1100000</v>
       </c>
-      <c r="N7" s="19">
-        <f>M7*1.1</f>
+      <c r="J7" s="19">
+        <f>I7*1.1</f>
         <v>1210000</v>
       </c>
-      <c r="O7" s="19">
-        <f>N7*1.1</f>
+      <c r="K7" s="19">
+        <f>J7*1.1</f>
         <v>1331000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -1768,36 +1664,23 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>33150</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="H8" s="19">
         <v>300000</v>
       </c>
-      <c r="M8" s="19">
-        <f>L8*1.02</f>
+      <c r="I8" s="19">
+        <f>H8*1.02</f>
         <v>306000</v>
       </c>
-      <c r="N8" s="19">
-        <f>M8*1.02</f>
+      <c r="J8" s="19">
+        <f>I8*1.02</f>
         <v>312120</v>
       </c>
-      <c r="O8" s="19">
-        <f>N8*1.02</f>
+      <c r="K8" s="19">
+        <f>J8*1.02</f>
         <v>318362.40000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>69</v>
       </c>
@@ -1820,36 +1703,23 @@
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>11900</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="H9" s="19">
         <v>100000</v>
       </c>
-      <c r="M9" s="19">
-        <f>L9*1.05</f>
+      <c r="I9" s="19">
+        <f>H9*1.05</f>
         <v>105000</v>
       </c>
-      <c r="N9" s="19">
-        <f>M9*1.5</f>
+      <c r="J9" s="19">
+        <f>I9*1.5</f>
         <v>157500</v>
       </c>
-      <c r="O9" s="19">
-        <f>N9*1.3</f>
+      <c r="K9" s="19">
+        <f>J9*1.3</f>
         <v>204750</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>71</v>
       </c>
@@ -1872,39 +1742,23 @@
         <f t="shared" si="0"/>
         <v>5100000</v>
       </c>
-      <c r="H10" s="18">
-        <f t="shared" ref="H10" si="4">SUM(G10:G13)</f>
-        <v>7225000</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="1"/>
-        <v>0.13502350997585463</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>816000</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="H10" s="19">
         <v>6000000</v>
       </c>
-      <c r="M10" s="19">
-        <f>L10*1.6</f>
+      <c r="I10" s="19">
+        <f>H10*1.6</f>
         <v>9600000</v>
       </c>
-      <c r="N10" s="19">
-        <f>M10*1.2</f>
+      <c r="J10" s="19">
+        <f>I10*1.2</f>
         <v>11520000</v>
       </c>
-      <c r="O10" s="19">
-        <f>N10*1.1</f>
+      <c r="K10" s="19">
+        <f>J10*1.1</f>
         <v>12672000.000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>71</v>
       </c>
@@ -1927,36 +1781,23 @@
         <f t="shared" si="0"/>
         <v>1020000</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>102000</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="H11" s="19">
         <v>1200000</v>
       </c>
-      <c r="M11" s="19">
-        <f>L11*0.9</f>
+      <c r="I11" s="19">
+        <f>H11*0.9</f>
         <v>1080000</v>
       </c>
-      <c r="N11" s="19">
-        <f>M11*0.9</f>
+      <c r="J11" s="19">
+        <f>I11*0.9</f>
         <v>972000</v>
       </c>
-      <c r="O11" s="19">
-        <f>N11*0.9</f>
+      <c r="K11" s="19">
+        <f>J11*0.9</f>
         <v>874800</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>71</v>
       </c>
@@ -1979,36 +1820,23 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>40800</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="H12" s="19">
         <v>300000</v>
       </c>
-      <c r="M12" s="19">
-        <f>L12*1.5</f>
+      <c r="I12" s="19">
+        <f>H12*1.5</f>
         <v>450000</v>
       </c>
-      <c r="N12" s="19">
-        <f>M12*1.5</f>
+      <c r="J12" s="19">
+        <f>I12*1.5</f>
         <v>675000</v>
       </c>
-      <c r="O12" s="19">
-        <f>N12*1.5</f>
+      <c r="K12" s="19">
+        <f>J12*1.5</f>
         <v>1012500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>71</v>
       </c>
@@ -2031,36 +1859,23 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>119000</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="H13" s="19">
         <v>1000000</v>
       </c>
-      <c r="M13" s="19">
-        <f>L13*1.2</f>
+      <c r="I13" s="19">
+        <f>H13*1.2</f>
         <v>1200000</v>
       </c>
-      <c r="N13" s="19">
-        <f>M13*1.3</f>
+      <c r="J13" s="19">
+        <f>I13*1.3</f>
         <v>1560000</v>
       </c>
-      <c r="O13" s="19">
-        <f>N13*1.3</f>
+      <c r="K13" s="19">
+        <f>J13*1.3</f>
         <v>2028000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
@@ -2083,39 +1898,23 @@
         <f t="shared" si="0"/>
         <v>4250000</v>
       </c>
-      <c r="H14" s="18">
-        <f t="shared" ref="H14" si="5">SUM(G14:G17)</f>
-        <v>5882000</v>
-      </c>
-      <c r="I14" s="18">
-        <f t="shared" si="1"/>
-        <v>0.10992502223916635</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>850000</v>
-      </c>
-      <c r="L14" s="19">
+      <c r="H14" s="19">
         <v>5000000</v>
       </c>
-      <c r="M14" s="19">
-        <f>L14*1.2</f>
+      <c r="I14" s="19">
+        <f>H14*1.2</f>
         <v>6000000</v>
       </c>
-      <c r="N14" s="19">
-        <f>M14*1.2</f>
+      <c r="J14" s="19">
+        <f>I14*1.2</f>
         <v>7200000</v>
       </c>
-      <c r="O14" s="19">
-        <f>N14*1.2</f>
+      <c r="K14" s="19">
+        <f>J14*1.2</f>
         <v>8640000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>73</v>
       </c>
@@ -2138,36 +1937,23 @@
         <f t="shared" si="0"/>
         <v>1020000</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>132600</v>
-      </c>
-      <c r="L15" s="19">
+      <c r="H15" s="19">
         <v>1200000</v>
       </c>
-      <c r="M15" s="19">
-        <f>L15*1.1</f>
+      <c r="I15" s="19">
+        <f>H15*1.1</f>
         <v>1320000</v>
       </c>
-      <c r="N15" s="19">
-        <f>M15*1.1</f>
+      <c r="J15" s="19">
+        <f>I15*1.1</f>
         <v>1452000.0000000002</v>
       </c>
-      <c r="O15" s="19">
-        <f>N15*1</f>
+      <c r="K15" s="19">
+        <f>J15*1</f>
         <v>1452000.0000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>73</v>
       </c>
@@ -2190,36 +1976,23 @@
         <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>76500</v>
-      </c>
-      <c r="L16" s="19">
+      <c r="H16" s="19">
         <v>600000</v>
       </c>
-      <c r="M16" s="19">
-        <f>L16*1.1</f>
+      <c r="I16" s="19">
+        <f>H16*1.1</f>
         <v>660000</v>
       </c>
-      <c r="N16" s="19">
-        <f>M16*1.1</f>
+      <c r="J16" s="19">
+        <f>I16*1.1</f>
         <v>726000.00000000012</v>
       </c>
-      <c r="O16" s="19">
-        <f>N16*1.5</f>
+      <c r="K16" s="19">
+        <f>J16*1.5</f>
         <v>1089000.0000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>73</v>
       </c>
@@ -2242,36 +2015,23 @@
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>19380</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="H17" s="19">
         <v>120000</v>
       </c>
-      <c r="M17" s="19">
-        <f t="shared" ref="M17:M23" si="6">L17*1.1</f>
+      <c r="I17" s="19">
+        <f t="shared" ref="I17:I23" si="1">H17*1.1</f>
         <v>132000</v>
       </c>
-      <c r="N17" s="19">
-        <f>M17*1.5</f>
+      <c r="J17" s="19">
+        <f>I17*1.5</f>
         <v>198000</v>
       </c>
-      <c r="O17" s="19">
-        <f>N17*1.3</f>
+      <c r="K17" s="19">
+        <f>J17*1.3</f>
         <v>257400</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
@@ -2294,39 +2054,23 @@
         <f t="shared" si="0"/>
         <v>1530000</v>
       </c>
-      <c r="H18" s="18">
-        <f t="shared" ref="H18" si="7">SUM(G18:G21)</f>
-        <v>2261000</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="H18" s="19">
+        <v>1800000</v>
+      </c>
+      <c r="I18" s="19">
         <f t="shared" si="1"/>
-        <v>4.2254416063032152E-2</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>229500</v>
-      </c>
-      <c r="L18" s="19">
-        <v>1800000</v>
-      </c>
-      <c r="M18" s="19">
-        <f t="shared" si="6"/>
         <v>1980000.0000000002</v>
       </c>
-      <c r="N18" s="19">
-        <f t="shared" ref="N18:O20" si="8">M18*1.1</f>
+      <c r="J18" s="19">
+        <f t="shared" ref="J18:K20" si="2">I18*1.1</f>
         <v>2178000.0000000005</v>
       </c>
-      <c r="O18" s="19">
-        <f t="shared" si="8"/>
+      <c r="K18" s="19">
+        <f t="shared" si="2"/>
         <v>2395800.0000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
@@ -2349,36 +2093,23 @@
         <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18">
+      <c r="H19" s="19">
+        <v>600000</v>
+      </c>
+      <c r="I19" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>66300</v>
-      </c>
-      <c r="L19" s="19">
-        <v>600000</v>
-      </c>
-      <c r="M19" s="19">
-        <f t="shared" si="6"/>
         <v>660000</v>
       </c>
-      <c r="N19" s="19">
-        <f t="shared" si="8"/>
+      <c r="J19" s="19">
+        <f t="shared" si="2"/>
         <v>726000.00000000012</v>
       </c>
-      <c r="O19" s="19">
-        <f t="shared" si="8"/>
+      <c r="K19" s="19">
+        <f t="shared" si="2"/>
         <v>798600.00000000023</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>74</v>
       </c>
@@ -2401,36 +2132,23 @@
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18">
+      <c r="H20" s="19">
+        <v>200000</v>
+      </c>
+      <c r="I20" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>32300</v>
-      </c>
-      <c r="L20" s="19">
-        <v>200000</v>
-      </c>
-      <c r="M20" s="19">
-        <f t="shared" si="6"/>
         <v>220000.00000000003</v>
       </c>
-      <c r="N20" s="19">
-        <f t="shared" si="8"/>
+      <c r="J20" s="19">
+        <f t="shared" si="2"/>
         <v>242000.00000000006</v>
       </c>
-      <c r="O20" s="19">
-        <f t="shared" si="8"/>
+      <c r="K20" s="19">
+        <f t="shared" si="2"/>
         <v>266200.00000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>74</v>
       </c>
@@ -2453,36 +2171,23 @@
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18">
+      <c r="H21" s="19">
+        <v>60000</v>
+      </c>
+      <c r="I21" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7650</v>
-      </c>
-      <c r="L21" s="19">
-        <v>60000</v>
-      </c>
-      <c r="M21" s="19">
-        <f t="shared" si="6"/>
         <v>66000</v>
       </c>
-      <c r="N21" s="19">
-        <f>M21*1.5</f>
+      <c r="J21" s="19">
+        <f>I21*1.5</f>
         <v>99000</v>
       </c>
-      <c r="O21" s="19">
-        <f>N21*1.3</f>
+      <c r="K21" s="19">
+        <f>J21*1.3</f>
         <v>128700</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>75</v>
       </c>
@@ -2505,39 +2210,23 @@
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
-      <c r="H22" s="18">
-        <f>SUM(G22:G25)</f>
-        <v>3884500</v>
-      </c>
-      <c r="I22" s="18">
+      <c r="H22" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="I22" s="19">
         <f t="shared" si="1"/>
-        <v>7.2594993010547712E-2</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>397800</v>
-      </c>
-      <c r="L22" s="19">
-        <v>3600000</v>
-      </c>
-      <c r="M22" s="19">
-        <f t="shared" si="6"/>
         <v>3960000.0000000005</v>
       </c>
-      <c r="N22" s="19">
-        <f>M22*0.6</f>
+      <c r="J22" s="19">
+        <f>I22*0.6</f>
         <v>2376000</v>
       </c>
-      <c r="O22" s="19">
-        <f>N22*0.9</f>
+      <c r="K22" s="19">
+        <f>J22*0.9</f>
         <v>2138400</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>75</v>
       </c>
@@ -2560,36 +2249,23 @@
         <f t="shared" si="0"/>
         <v>612000</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18">
+      <c r="H23" s="19">
+        <v>720000</v>
+      </c>
+      <c r="I23" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>97920</v>
-      </c>
-      <c r="L23" s="19">
-        <v>720000</v>
-      </c>
-      <c r="M23" s="19">
-        <f t="shared" si="6"/>
         <v>792000.00000000012</v>
       </c>
-      <c r="N23" s="19">
-        <f>M23*1.1</f>
+      <c r="J23" s="19">
+        <f>I23*1.1</f>
         <v>871200.00000000023</v>
       </c>
-      <c r="O23" s="19">
-        <f>N23*1.1</f>
+      <c r="K23" s="19">
+        <f>J23*1.1</f>
         <v>958320.00000000035</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
         <v>75</v>
       </c>
@@ -2612,36 +2288,23 @@
         <f t="shared" si="0"/>
         <v>212500</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>25500</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="H24" s="19">
         <v>250000</v>
       </c>
-      <c r="M24" s="19">
-        <f>L24*1.2</f>
+      <c r="I24" s="19">
+        <f>H24*1.2</f>
         <v>300000</v>
       </c>
-      <c r="N24" s="19">
-        <f>M24*1.2</f>
+      <c r="J24" s="19">
+        <f>I24*1.2</f>
         <v>360000</v>
       </c>
-      <c r="O24" s="19">
-        <f>N24*1.2</f>
+      <c r="K24" s="19">
+        <f>J24*1.2</f>
         <v>432000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
@@ -2664,25 +2327,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2705,39 +2355,23 @@
         <f t="shared" si="0"/>
         <v>2550000</v>
       </c>
-      <c r="H26" s="18">
-        <f>SUM(G26:G29)</f>
-        <v>3553000</v>
-      </c>
-      <c r="I26" s="18">
-        <f t="shared" si="1"/>
-        <v>6.63997966704791E-2</v>
-      </c>
-      <c r="J26" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>459000</v>
-      </c>
-      <c r="L26" s="19">
+      <c r="H26" s="19">
         <v>3000000</v>
       </c>
-      <c r="M26" s="19">
-        <f>L26*1.1</f>
+      <c r="I26" s="19">
+        <f>H26*1.1</f>
         <v>3300000.0000000005</v>
       </c>
-      <c r="N26" s="19">
-        <f>M26*1.1</f>
+      <c r="J26" s="19">
+        <f>I26*1.1</f>
         <v>3630000.0000000009</v>
       </c>
-      <c r="O26" s="19">
-        <f>N26*1.1</f>
+      <c r="K26" s="19">
+        <f>J26*1.1</f>
         <v>3993000.0000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>76</v>
       </c>
@@ -2760,36 +2394,23 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K27" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>127500</v>
-      </c>
-      <c r="L27" s="19">
+      <c r="H27" s="19">
         <v>1000000</v>
       </c>
-      <c r="M27" s="19">
-        <f>L27*1.4</f>
+      <c r="I27" s="19">
+        <f>H27*1.4</f>
         <v>1400000</v>
       </c>
-      <c r="N27" s="19">
-        <f>M27*1.3</f>
+      <c r="J27" s="19">
+        <f>I27*1.3</f>
         <v>1820000</v>
       </c>
-      <c r="O27" s="19">
-        <f>N27*1.3</f>
+      <c r="K27" s="19">
+        <f>J27*1.3</f>
         <v>2366000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
         <v>76</v>
       </c>
@@ -2812,36 +2433,23 @@
         <f t="shared" si="0"/>
         <v>153000</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K28" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>27540</v>
-      </c>
-      <c r="L28" s="19">
+      <c r="H28" s="19">
         <v>180000</v>
       </c>
-      <c r="M28" s="19">
-        <f>L28*1.2</f>
+      <c r="I28" s="19">
+        <f>H28*1.2</f>
         <v>216000</v>
       </c>
-      <c r="N28" s="19">
-        <f>M28*1.2</f>
+      <c r="J28" s="19">
+        <f>I28*1.2</f>
         <v>259200</v>
       </c>
-      <c r="O28" s="19">
-        <f>N28*1.2</f>
+      <c r="K28" s="19">
+        <f>J28*1.2</f>
         <v>311040</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
         <v>76</v>
       </c>
@@ -2864,31 +2472,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K29" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19">
-        <f>M29*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="19">
-        <f>N29*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19">
+        <f>I29*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <f>J29*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -2911,39 +2506,23 @@
         <f t="shared" si="0"/>
         <v>918000</v>
       </c>
-      <c r="H30" s="18">
-        <f t="shared" ref="H30" si="9">SUM(G30:G33)</f>
-        <v>1258000</v>
-      </c>
-      <c r="I30" s="18">
-        <f t="shared" si="1"/>
-        <v>2.3509975854619392E-2</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>128520</v>
-      </c>
-      <c r="L30" s="19">
+      <c r="H30" s="19">
         <v>1080000</v>
       </c>
-      <c r="M30" s="19">
-        <f t="shared" ref="M30:O31" si="10">L30*1.1</f>
+      <c r="I30" s="19">
+        <f t="shared" ref="I30:K31" si="3">H30*1.1</f>
         <v>1188000</v>
       </c>
-      <c r="N30" s="19">
-        <f t="shared" si="10"/>
+      <c r="J30" s="19">
+        <f t="shared" si="3"/>
         <v>1306800</v>
       </c>
-      <c r="O30" s="19">
-        <f t="shared" si="10"/>
+      <c r="K30" s="19">
+        <f t="shared" si="3"/>
         <v>1437480</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -2966,36 +2545,23 @@
         <f t="shared" si="0"/>
         <v>306000</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K31" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>48960</v>
-      </c>
-      <c r="L31" s="19">
+      <c r="H31" s="19">
         <v>360000</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" si="10"/>
+      <c r="I31" s="19">
+        <f t="shared" si="3"/>
         <v>396000.00000000006</v>
       </c>
-      <c r="N31" s="19">
-        <f t="shared" si="10"/>
+      <c r="J31" s="19">
+        <f t="shared" si="3"/>
         <v>435600.00000000012</v>
       </c>
-      <c r="O31" s="19">
-        <f t="shared" si="10"/>
+      <c r="K31" s="19">
+        <f t="shared" si="3"/>
         <v>479160.00000000017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
@@ -3018,36 +2584,23 @@
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K32" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>3740</v>
-      </c>
-      <c r="L32" s="19">
+      <c r="H32" s="19">
         <v>40000</v>
       </c>
-      <c r="M32" s="19">
-        <f>L32*1.05</f>
+      <c r="I32" s="19">
+        <f>H32*1.05</f>
         <v>42000</v>
       </c>
-      <c r="N32" s="19">
-        <f>M32*1.05</f>
+      <c r="J32" s="19">
+        <f>I32*1.05</f>
         <v>44100</v>
       </c>
-      <c r="O32" s="19">
-        <f>N32*1.05</f>
+      <c r="K32" s="19">
+        <f>J32*1.05</f>
         <v>46305</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
@@ -3070,28 +2623,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K33" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19">
-        <f>L33*1.3</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H33" s="19"/>
+      <c r="I33" s="19">
+        <f>H33*1.3</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
         <v>79</v>
       </c>
@@ -3114,39 +2654,23 @@
         <f t="shared" si="0"/>
         <v>612000</v>
       </c>
-      <c r="H34" s="18">
-        <f t="shared" ref="H34" si="11">SUM(G34:G37)</f>
-        <v>1310700</v>
-      </c>
-      <c r="I34" s="18">
-        <f t="shared" si="1"/>
-        <v>2.4494853221502098E-2</v>
-      </c>
-      <c r="J34" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K34" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>104040</v>
-      </c>
-      <c r="L34" s="19">
+      <c r="H34" s="19">
         <v>720000</v>
       </c>
-      <c r="M34" s="19">
-        <f>L34*1.3</f>
+      <c r="I34" s="19">
+        <f>H34*1.3</f>
         <v>936000</v>
       </c>
-      <c r="N34" s="19">
-        <f>M34*1.3</f>
+      <c r="J34" s="19">
+        <f>I34*1.3</f>
         <v>1216800</v>
       </c>
-      <c r="O34" s="19">
-        <f>N34*1.3</f>
+      <c r="K34" s="19">
+        <f>J34*1.3</f>
         <v>1581840</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>79</v>
       </c>
@@ -3169,36 +2693,23 @@
         <f t="shared" si="0"/>
         <v>367200</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>69768</v>
-      </c>
-      <c r="L35" s="19">
+      <c r="H35" s="19">
         <v>432000</v>
       </c>
-      <c r="M35" s="19">
-        <f t="shared" ref="M35:O36" si="12">L35</f>
+      <c r="I35" s="19">
+        <f t="shared" ref="I35:K36" si="4">H35</f>
         <v>432000</v>
       </c>
-      <c r="N35" s="19">
-        <f t="shared" si="12"/>
+      <c r="J35" s="19">
+        <f t="shared" si="4"/>
         <v>432000</v>
       </c>
-      <c r="O35" s="19">
-        <f t="shared" si="12"/>
+      <c r="K35" s="19">
+        <f t="shared" si="4"/>
         <v>432000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>79</v>
       </c>
@@ -3221,36 +2732,23 @@
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K36" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>12750</v>
-      </c>
-      <c r="L36" s="19">
+      <c r="H36" s="19">
         <v>100000</v>
       </c>
-      <c r="M36" s="19">
-        <f t="shared" si="12"/>
+      <c r="I36" s="19">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N36" s="19">
-        <f t="shared" si="12"/>
+      <c r="J36" s="19">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="O36" s="19">
-        <f t="shared" si="12"/>
+      <c r="K36" s="19">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>79</v>
       </c>
@@ -3273,36 +2771,23 @@
         <f t="shared" si="0"/>
         <v>246500</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K37" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>41905</v>
-      </c>
-      <c r="L37" s="19">
+      <c r="H37" s="19">
         <v>290000</v>
       </c>
-      <c r="M37" s="19">
-        <f>L37*1.5</f>
+      <c r="I37" s="19">
+        <f>H37*1.5</f>
         <v>435000</v>
       </c>
-      <c r="N37" s="19">
-        <f>M37*1.3</f>
+      <c r="J37" s="19">
+        <f>I37*1.3</f>
         <v>565500</v>
       </c>
-      <c r="O37" s="19">
-        <f>N37*1.3</f>
+      <c r="K37" s="19">
+        <f>J37*1.3</f>
         <v>735150</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
         <v>80</v>
       </c>
@@ -3325,39 +2810,23 @@
         <f t="shared" si="0"/>
         <v>10200000</v>
       </c>
-      <c r="H38" s="18">
-        <f t="shared" ref="H38" si="13">SUM(G38:G41)</f>
-        <v>12410000</v>
-      </c>
-      <c r="I38" s="18">
-        <f t="shared" si="1"/>
-        <v>0.23192273478205616</v>
-      </c>
-      <c r="J38" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K38" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1122000</v>
-      </c>
-      <c r="L38" s="19">
+      <c r="H38" s="19">
         <v>12000000</v>
       </c>
-      <c r="M38" s="19">
-        <f t="shared" ref="M38:O39" si="14">L38*0.9</f>
+      <c r="I38" s="19">
+        <f t="shared" ref="I38:K39" si="5">H38*0.9</f>
         <v>10800000</v>
       </c>
-      <c r="N38" s="19">
-        <f t="shared" si="14"/>
+      <c r="J38" s="19">
+        <f t="shared" si="5"/>
         <v>9720000</v>
       </c>
-      <c r="O38" s="19">
-        <f t="shared" si="14"/>
+      <c r="K38" s="19">
+        <f t="shared" si="5"/>
         <v>8748000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
         <v>80</v>
       </c>
@@ -3380,36 +2849,23 @@
         <f t="shared" si="0"/>
         <v>1105000</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K39" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>143650</v>
-      </c>
-      <c r="L39" s="19">
+      <c r="H39" s="19">
         <v>1300000</v>
       </c>
-      <c r="M39" s="19">
-        <f t="shared" si="14"/>
+      <c r="I39" s="19">
+        <f t="shared" si="5"/>
         <v>1170000</v>
       </c>
-      <c r="N39" s="19">
-        <f t="shared" si="14"/>
+      <c r="J39" s="19">
+        <f t="shared" si="5"/>
         <v>1053000</v>
       </c>
-      <c r="O39" s="19">
-        <f t="shared" si="14"/>
+      <c r="K39" s="19">
+        <f t="shared" si="5"/>
         <v>947700</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
         <v>80</v>
       </c>
@@ -3432,36 +2888,23 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K40" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>161500</v>
-      </c>
-      <c r="L40" s="19">
+      <c r="H40" s="19">
         <v>1000000</v>
       </c>
-      <c r="M40" s="19">
-        <f>L40*1.4</f>
+      <c r="I40" s="19">
+        <f>H40*1.4</f>
         <v>1400000</v>
       </c>
-      <c r="N40" s="19">
-        <f>M40*1.4</f>
+      <c r="J40" s="19">
+        <f>I40*1.4</f>
         <v>1959999.9999999998</v>
       </c>
-      <c r="O40" s="19">
-        <f>N40*1.4</f>
+      <c r="K40" s="19">
+        <f>J40*1.4</f>
         <v>2743999.9999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>80</v>
       </c>
@@ -3484,160 +2927,27 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K41" s="18">
-        <f t="shared" ca="1" si="3"/>
-        <v>51000</v>
-      </c>
-      <c r="L41" s="19">
+      <c r="H41" s="19">
         <v>300000</v>
       </c>
-      <c r="M41" s="19">
-        <f>L41*1.1</f>
+      <c r="I41" s="19">
+        <f>H41*1.1</f>
         <v>330000</v>
       </c>
-      <c r="N41" s="19">
-        <f>M41*1.5</f>
+      <c r="J41" s="19">
+        <f>I41*1.5</f>
         <v>495000</v>
       </c>
-      <c r="O41" s="19">
-        <f>N41*1.3</f>
+      <c r="K41" s="19">
+        <f>J41*1.3</f>
         <v>643500</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G42" s="31">
+    <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G42" s="29">
         <f>SUM(G2:G41)</f>
         <v>53509200</v>
       </c>
-    </row>
-    <row r="53" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K53" s="18"/>
-    </row>
-    <row r="54" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K54" s="18"/>
-    </row>
-    <row r="55" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K72" s="18"/>
-    </row>
-    <row r="73" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K73" s="18"/>
-    </row>
-    <row r="74" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K74" s="18"/>
-    </row>
-    <row r="75" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K79" s="18"/>
-    </row>
-    <row r="80" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K80" s="18"/>
-    </row>
-    <row r="81" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K81" s="18"/>
-    </row>
-    <row r="82" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K82" s="18"/>
-    </row>
-    <row r="83" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K85" s="18"/>
-    </row>
-    <row r="86" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K86" s="18"/>
-    </row>
-    <row r="87" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K88" s="18"/>
-    </row>
-    <row r="89" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="11:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K92" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3648,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN41"/>
+  <dimension ref="A1:AME41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3659,25 +2969,18 @@
     <col min="1" max="1" width="13" style="21"/>
     <col min="2" max="2" width="10.375" style="21"/>
     <col min="3" max="3" width="19.25" style="22"/>
-    <col min="4" max="4" width="9" style="22"/>
-    <col min="5" max="5" width="19.125" style="22"/>
+    <col min="4" max="4" width="19.125" style="22"/>
+    <col min="5" max="5" width="15.875" style="22"/>
     <col min="6" max="6" width="9" style="22"/>
-    <col min="7" max="7" width="15.875" style="22"/>
-    <col min="8" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="13.375" style="22"/>
-    <col min="11" max="11" width="16.375" style="22"/>
-    <col min="12" max="12" width="9" style="22"/>
-    <col min="13" max="13" width="21.5" style="22"/>
-    <col min="14" max="14" width="9" style="22"/>
-    <col min="15" max="15" width="19" style="22"/>
-    <col min="16" max="16" width="22.375" style="22"/>
-    <col min="17" max="17" width="11.25" customWidth="1"/>
-    <col min="18" max="18" width="7.625"/>
-    <col min="19" max="19" width="12.125" style="30" customWidth="1"/>
-    <col min="20" max="1029" width="7.625"/>
+    <col min="7" max="7" width="13.375" style="22"/>
+    <col min="8" max="8" width="16.375" style="22"/>
+    <col min="9" max="9" width="21.5" style="22"/>
+    <col min="10" max="10" width="19" style="22"/>
+    <col min="11" max="11" width="22.375" style="22"/>
+    <col min="12" max="1020" width="7.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20 1027:1028" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1019" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>58</v>
       </c>
@@ -3687,48 +2990,34 @@
       <c r="C1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="24"/>
+      <c r="D1" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="E1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="G1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I1" s="24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AMM1"/>
-      <c r="AMN1"/>
-    </row>
-    <row r="2" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+      <c r="AMD1"/>
+      <c r="AME1"/>
+    </row>
+    <row r="2" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3736,68 +3025,35 @@
         <v>1</v>
       </c>
       <c r="C2" s="22">
-        <v>19.244363651790898</v>
+        <v>59</v>
       </c>
       <c r="D2" s="22">
-        <f ca="1">IF(C2&gt;50,C2-RANDBETWEEN(20,40),C2)</f>
-        <v>19.244363651790898</v>
+        <v>44.879793099555599</v>
       </c>
       <c r="E2" s="22">
-        <v>44.879793099555599</v>
+        <v>52.728006222884297</v>
       </c>
       <c r="F2" s="22">
-        <f ca="1">IF(E2&gt;50,E2-RANDBETWEEN(30,40),E2)</f>
-        <v>44.879793099555599</v>
+        <v>1530000</v>
       </c>
       <c r="G2" s="22">
-        <v>52.728006222884297</v>
+        <f>ROUND(F2/89,0)</f>
+        <v>17191</v>
       </c>
       <c r="H2" s="22">
-        <f ca="1">IF(G2&gt;50,G2-RANDBETWEEN(20,40),G2)</f>
-        <v>28.728006222884297</v>
+        <v>57.930941687202697</v>
       </c>
       <c r="I2" s="22">
-        <v>1530000</v>
+        <v>58.551502108802097</v>
       </c>
       <c r="J2" s="22">
-        <f>ROUND(I2/89,0)</f>
-        <v>17191</v>
+        <v>54.976977046163299</v>
       </c>
       <c r="K2" s="22">
-        <v>57.930941687202697</v>
-      </c>
-      <c r="L2" s="22">
-        <f>IF(K2&gt;30,K2-30)</f>
-        <v>27.930941687202697</v>
-      </c>
-      <c r="M2" s="22">
-        <v>58.551502108802097</v>
-      </c>
-      <c r="N2" s="22">
-        <f>IF(M2&gt;20,M2-20)</f>
-        <v>38.551502108802097</v>
-      </c>
-      <c r="O2" s="22">
         <v>54.976977046163299</v>
       </c>
-      <c r="P2" s="22">
-        <v>54.976977046163299</v>
-      </c>
-      <c r="Q2">
-        <v>8500000</v>
-      </c>
-      <c r="R2">
-        <v>1368500</v>
-      </c>
-      <c r="S2" s="30">
-        <f>R2/Q2</f>
-        <v>0.161</v>
-      </c>
-      <c r="T2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -3805,68 +3061,35 @@
         <v>2</v>
       </c>
       <c r="C3" s="22">
-        <v>35.703498731626802</v>
+        <v>63</v>
       </c>
       <c r="D3" s="22">
-        <f t="shared" ref="D3:D41" ca="1" si="0">IF(C3&gt;50,C3-RANDBETWEEN(20,40),C3)</f>
-        <v>35.703498731626802</v>
+        <v>38.493192376118202</v>
       </c>
       <c r="E3" s="22">
-        <v>13.4931923761182</v>
+        <v>44.7</v>
       </c>
       <c r="F3" s="22">
-        <f t="shared" ref="F3:F41" ca="1" si="1">IF(E3&gt;50,E3-RANDBETWEEN(30,40),E3)</f>
-        <v>13.4931923761182</v>
+        <v>272000</v>
       </c>
       <c r="G3" s="22">
-        <v>44.7</v>
+        <f>ROUND(F3/65,0)</f>
+        <v>4185</v>
       </c>
       <c r="H3" s="22">
-        <f t="shared" ref="H3:H41" ca="1" si="2">IF(G3&gt;50,G3-RANDBETWEEN(20,40),G3)</f>
-        <v>44.7</v>
+        <v>55.8439976343764</v>
       </c>
       <c r="I3" s="22">
-        <v>272000</v>
+        <v>39.747838226537503</v>
       </c>
       <c r="J3" s="22">
-        <f>ROUND(I3/65,0)</f>
-        <v>4185</v>
+        <v>57.057625962045897</v>
       </c>
       <c r="K3" s="22">
-        <v>55.8439976343764</v>
-      </c>
-      <c r="L3" s="22">
-        <f t="shared" ref="L3:L40" si="3">IF(K3&gt;30,K3-30)</f>
-        <v>25.8439976343764</v>
-      </c>
-      <c r="M3" s="22">
-        <v>39.747838226537503</v>
-      </c>
-      <c r="N3" s="22">
-        <f t="shared" ref="N3:N40" si="4">IF(M3&gt;20,M3-20)</f>
-        <v>19.747838226537503</v>
-      </c>
-      <c r="O3" s="22">
         <v>57.057625962045897</v>
       </c>
-      <c r="P3" s="22">
-        <v>57.057625962045897</v>
-      </c>
-      <c r="Q3">
-        <v>1700000</v>
-      </c>
-      <c r="R3">
-        <v>275400</v>
-      </c>
-      <c r="S3" s="30">
-        <f t="shared" ref="S3:S41" si="5">R3/Q3</f>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="T3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -3874,67 +3097,35 @@
         <v>3</v>
       </c>
       <c r="C4" s="22">
-        <v>88.407609886342598</v>
+        <v>58</v>
       </c>
       <c r="D4" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>64.407609886342598</v>
+        <v>50.944632288927195</v>
       </c>
       <c r="E4" s="22">
-        <v>81.944632288927195</v>
+        <v>59.504301710583405</v>
       </c>
       <c r="F4" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.944632288927195</v>
+        <v>274550</v>
       </c>
       <c r="G4" s="22">
-        <v>87.504301710583405</v>
+        <f t="shared" ref="G4" si="0">ROUND(F4/89,0)</f>
+        <v>3085</v>
       </c>
       <c r="H4" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>56.504301710583405</v>
+        <v>53.772890296039606</v>
       </c>
       <c r="I4" s="22">
-        <v>274550</v>
+        <v>50</v>
       </c>
       <c r="J4" s="22">
-        <f t="shared" ref="J4" si="6">ROUND(I4/89,0)</f>
-        <v>3085</v>
+        <v>83.240245331334194</v>
       </c>
       <c r="K4" s="22">
-        <v>83.772890296039606</v>
-      </c>
-      <c r="L4" s="22">
-        <f t="shared" si="3"/>
-        <v>53.772890296039606</v>
-      </c>
-      <c r="M4" s="22">
-        <v>89.992886286092997</v>
-      </c>
-      <c r="N4" s="22">
-        <v>50</v>
-      </c>
-      <c r="O4" s="22">
         <v>83.240245331334194</v>
       </c>
-      <c r="P4" s="22">
-        <v>83.240245331334194</v>
-      </c>
-      <c r="Q4">
-        <v>1615000</v>
-      </c>
-      <c r="R4">
-        <v>342380</v>
-      </c>
-      <c r="S4" s="30">
-        <f t="shared" si="5"/>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="T4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -3945,63 +3136,32 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="22">
         <v>0</v>
       </c>
       <c r="F5" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="22">
+        <f t="shared" ref="G5" si="1">ROUND(F5/65,0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="22">
         <v>0</v>
       </c>
       <c r="J5" s="22">
-        <f t="shared" ref="J5" si="7">ROUND(I5/65,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
         <v>0</v>
       </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>170000</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -4009,68 +3169,35 @@
         <v>1</v>
       </c>
       <c r="C6" s="22">
-        <v>53.982642594954299</v>
+        <v>36</v>
       </c>
       <c r="D6" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.982642594954299</v>
+        <v>65.084634226865603</v>
       </c>
       <c r="E6" s="22">
-        <v>65.084634226865603</v>
+        <v>60.843324587258998</v>
       </c>
       <c r="F6" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.084634226865603</v>
+        <v>331500</v>
       </c>
       <c r="G6" s="22">
-        <v>60.843324587258998</v>
+        <f t="shared" ref="G6:G7" si="2">ROUND(F6/89,0)</f>
+        <v>3725</v>
       </c>
       <c r="H6" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>24.843324587258998</v>
+        <v>65</v>
       </c>
       <c r="I6" s="22">
-        <v>331500</v>
+        <v>57.432987498746698</v>
       </c>
       <c r="J6" s="22">
-        <f t="shared" ref="J6:J7" si="8">ROUND(I6/89,0)</f>
-        <v>3725</v>
+        <v>55.097060368794502</v>
       </c>
       <c r="K6" s="22">
-        <v>65</v>
-      </c>
-      <c r="L6" s="22">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="M6" s="22">
-        <v>49.394395159115803</v>
-      </c>
-      <c r="N6" s="22">
-        <f t="shared" si="4"/>
-        <v>29.394395159115803</v>
-      </c>
-      <c r="O6" s="22">
         <v>55.097060368794502</v>
       </c>
-      <c r="P6" s="22">
-        <v>55.097060368794502</v>
-      </c>
-      <c r="Q6">
-        <v>2550000</v>
-      </c>
-      <c r="R6">
-        <v>418200</v>
-      </c>
-      <c r="S6" s="30">
-        <f t="shared" si="5"/>
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="T6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>2</v>
       </c>
@@ -4078,67 +3205,35 @@
         <v>2</v>
       </c>
       <c r="C7" s="22">
-        <v>91.6979278343575</v>
+        <v>52</v>
       </c>
       <c r="D7" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.6979278343575</v>
+        <v>58.918552155937206</v>
       </c>
       <c r="E7" s="22">
-        <v>88.918552155937206</v>
+        <v>54.800818220229502</v>
       </c>
       <c r="F7" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.918552155937206</v>
+        <v>144500</v>
       </c>
       <c r="G7" s="22">
-        <v>92.800818220229502</v>
+        <f t="shared" si="2"/>
+        <v>1624</v>
       </c>
       <c r="H7" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>66.800818220229502</v>
+        <v>61.307433163603307</v>
       </c>
       <c r="I7" s="22">
-        <v>144500</v>
+        <v>76.879478058719897</v>
       </c>
       <c r="J7" s="22">
-        <f t="shared" si="8"/>
-        <v>1624</v>
+        <v>85.372304744771498</v>
       </c>
       <c r="K7" s="22">
-        <v>91.307433163603307</v>
-      </c>
-      <c r="L7" s="22">
-        <f t="shared" si="3"/>
-        <v>61.307433163603307</v>
-      </c>
-      <c r="M7" s="22">
-        <v>89.198704983412298</v>
-      </c>
-      <c r="N7" s="22">
-        <v>55</v>
-      </c>
-      <c r="O7" s="22">
         <v>85.372304744771498</v>
       </c>
-      <c r="P7" s="22">
-        <v>85.372304744771498</v>
-      </c>
-      <c r="Q7">
-        <v>850000</v>
-      </c>
-      <c r="R7">
-        <v>244375</v>
-      </c>
-      <c r="S7" s="30">
-        <f t="shared" si="5"/>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="T7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -4146,67 +3241,35 @@
         <v>3</v>
       </c>
       <c r="C8" s="22">
-        <v>85.502820818951605</v>
+        <v>39</v>
       </c>
       <c r="D8" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>53.502820818951605</v>
+        <v>63.357643039927893</v>
       </c>
       <c r="E8" s="22">
-        <v>97.357643039927893</v>
+        <v>68.254691340935807</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>66.357643039927893</v>
+        <v>51000</v>
       </c>
       <c r="G8" s="22">
-        <v>90.254691340935807</v>
+        <f t="shared" ref="G8" si="3">ROUND(F8/65,0)</f>
+        <v>785</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>61.254691340935807</v>
+        <v>58.541976340431603</v>
       </c>
       <c r="I8" s="22">
-        <v>51000</v>
+        <v>54.604582033522902</v>
       </c>
       <c r="J8" s="22">
-        <f t="shared" ref="J8" si="9">ROUND(I8/65,0)</f>
-        <v>785</v>
+        <v>88.017317069593005</v>
       </c>
       <c r="K8" s="22">
-        <v>88.541976340431603</v>
-      </c>
-      <c r="L8" s="22">
-        <f t="shared" si="3"/>
-        <v>58.541976340431603</v>
-      </c>
-      <c r="M8" s="22">
-        <v>79.719167150084402</v>
-      </c>
-      <c r="N8" s="22">
-        <v>43</v>
-      </c>
-      <c r="O8" s="22">
         <v>88.017317069593005</v>
       </c>
-      <c r="P8" s="22">
-        <v>88.017317069593005</v>
-      </c>
-      <c r="Q8">
-        <v>255000</v>
-      </c>
-      <c r="R8">
-        <v>57120</v>
-      </c>
-      <c r="S8" s="30">
-        <f t="shared" si="5"/>
-        <v>0.224</v>
-      </c>
-      <c r="T8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -4217,63 +3280,32 @@
         <v>0</v>
       </c>
       <c r="D9" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="22">
         <v>0</v>
       </c>
       <c r="F9" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="22">
+        <f t="shared" ref="G9:G39" si="4">ROUND(F9/89,0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="22">
         <v>0</v>
       </c>
       <c r="J9" s="22">
-        <f t="shared" ref="J9:J39" si="10">ROUND(I9/89,0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="22">
         <v>0</v>
       </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>85000</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -4281,68 +3313,35 @@
         <v>1</v>
       </c>
       <c r="C10" s="22">
-        <v>75.146287186881096</v>
+        <v>50</v>
       </c>
       <c r="D10" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.146287186881096</v>
+        <v>45.773729669997799</v>
       </c>
       <c r="E10" s="22">
-        <v>45.773729669997799</v>
+        <v>69.469270424975704</v>
       </c>
       <c r="F10" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>45.773729669997799</v>
+        <v>867000</v>
       </c>
       <c r="G10" s="22">
-        <v>69.469270424975704</v>
+        <f t="shared" ref="G10:G40" si="5">ROUND(F10/65,0)</f>
+        <v>13338</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.469270424975704</v>
+        <v>41.040511063368299</v>
       </c>
       <c r="I10" s="22">
-        <v>867000</v>
+        <v>42.284512890374302</v>
       </c>
       <c r="J10" s="22">
-        <f t="shared" ref="J10:J40" si="11">ROUND(I10/65,0)</f>
-        <v>13338</v>
+        <v>39.790227049275202</v>
       </c>
       <c r="K10" s="22">
-        <v>41.040511063368299</v>
-      </c>
-      <c r="L10" s="22">
-        <f t="shared" si="3"/>
-        <v>11.040511063368299</v>
-      </c>
-      <c r="M10" s="22">
-        <v>42.284512890374302</v>
-      </c>
-      <c r="N10" s="22">
-        <f t="shared" si="4"/>
-        <v>22.284512890374302</v>
-      </c>
-      <c r="O10" s="22">
         <v>39.790227049275202</v>
       </c>
-      <c r="P10" s="22">
-        <v>39.790227049275202</v>
-      </c>
-      <c r="Q10">
-        <v>5100000</v>
-      </c>
-      <c r="R10">
-        <v>762450</v>
-      </c>
-      <c r="S10" s="30">
-        <f t="shared" si="5"/>
-        <v>0.14949999999999999</v>
-      </c>
-      <c r="T10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -4350,68 +3349,35 @@
         <v>2</v>
       </c>
       <c r="C11" s="22">
-        <v>16.866480005070802</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.866480005070802</v>
+        <v>39.2199427519731</v>
       </c>
       <c r="E11" s="22">
-        <v>23.2199427519731</v>
+        <v>38</v>
       </c>
       <c r="F11" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.2199427519731</v>
+        <v>183600</v>
       </c>
       <c r="G11" s="22">
-        <v>17.508311977088901</v>
+        <f t="shared" ref="G11:G41" si="6">ROUND(F11/89,0)</f>
+        <v>2063</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.508311977088901</v>
+        <v>32.552805060829002</v>
       </c>
       <c r="I11" s="22">
-        <v>183600</v>
+        <v>35.289966635798898</v>
       </c>
       <c r="J11" s="22">
-        <f t="shared" ref="J11:J41" si="12">ROUND(I11/89,0)</f>
-        <v>2063</v>
+        <v>88.256956553561196</v>
       </c>
       <c r="K11" s="22">
-        <v>32.552805060829002</v>
-      </c>
-      <c r="L11" s="22">
-        <f t="shared" si="3"/>
-        <v>2.5528050608290016</v>
-      </c>
-      <c r="M11" s="22">
-        <v>35.289966635798898</v>
-      </c>
-      <c r="N11" s="22">
-        <f t="shared" si="4"/>
-        <v>15.289966635798898</v>
-      </c>
-      <c r="O11" s="22">
         <v>88.256956553561196</v>
       </c>
-      <c r="P11" s="22">
-        <v>88.256956553561196</v>
-      </c>
-      <c r="Q11">
-        <v>1020000</v>
-      </c>
-      <c r="R11">
-        <v>179891</v>
-      </c>
-      <c r="S11" s="30">
-        <f t="shared" si="5"/>
-        <v>0.17636372549019608</v>
-      </c>
-      <c r="T11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -4419,68 +3385,35 @@
         <v>3</v>
       </c>
       <c r="C12" s="22">
-        <v>95.398280432603897</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>56.398280432603897</v>
+        <v>36.365303392325799</v>
       </c>
       <c r="E12" s="22">
-        <v>74.365303392325799</v>
+        <v>40.235292155920902</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>39.365303392325799</v>
+        <v>33150</v>
       </c>
       <c r="G12" s="22">
-        <v>40.235292155920902</v>
+        <f t="shared" si="6"/>
+        <v>372</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.235292155920902</v>
+        <v>38.240638843831597</v>
       </c>
       <c r="I12" s="22">
-        <v>33150</v>
+        <v>45.846543959141997</v>
       </c>
       <c r="J12" s="22">
-        <f t="shared" si="12"/>
-        <v>372</v>
+        <v>41.056032193973003</v>
       </c>
       <c r="K12" s="22">
-        <v>38.240638843831597</v>
-      </c>
-      <c r="L12" s="22">
-        <f t="shared" si="3"/>
-        <v>8.2406388438315972</v>
-      </c>
-      <c r="M12" s="22">
-        <v>45.846543959141997</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="4"/>
-        <v>25.846543959141997</v>
-      </c>
-      <c r="O12" s="22">
         <v>41.056032193973003</v>
       </c>
-      <c r="P12" s="22">
-        <v>41.056032193973003</v>
-      </c>
-      <c r="Q12">
-        <v>255000</v>
-      </c>
-      <c r="R12">
-        <v>38122</v>
-      </c>
-      <c r="S12" s="30">
-        <f t="shared" si="5"/>
-        <v>0.14949803921568627</v>
-      </c>
-      <c r="T12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>3</v>
       </c>
@@ -4491,63 +3424,32 @@
         <v>0</v>
       </c>
       <c r="D13" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="22">
         <v>0</v>
       </c>
       <c r="F13" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="22">
+        <f t="shared" ref="G13" si="7">ROUND(F13/65,0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
       </c>
       <c r="J13" s="22">
-        <f t="shared" ref="J13" si="13">ROUND(I13/65,0)</f>
         <v>0</v>
       </c>
       <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>850000</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>4</v>
       </c>
@@ -4555,68 +3457,35 @@
         <v>1</v>
       </c>
       <c r="C14" s="22">
-        <v>76.912100010886903</v>
+        <v>39</v>
       </c>
       <c r="D14" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.912100010886903</v>
+        <v>51.931673839357202</v>
       </c>
       <c r="E14" s="22">
-        <v>51.931673839357202</v>
+        <v>56.240073696511097</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.931673839357202</v>
+        <v>807500</v>
       </c>
       <c r="G14" s="22">
-        <v>56.240073696511097</v>
+        <f t="shared" si="4"/>
+        <v>9073</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.240073696511097</v>
+        <v>66.954974237323995</v>
       </c>
       <c r="I14" s="22">
-        <v>807500</v>
+        <v>57.432987498746698</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" si="10"/>
-        <v>9073</v>
+        <v>71.745145405281605</v>
       </c>
       <c r="K14" s="22">
-        <v>66.954974237323995</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="3"/>
-        <v>36.954974237323995</v>
-      </c>
-      <c r="M14" s="22">
-        <v>57.432987498746698</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="4"/>
-        <v>37.432987498746698</v>
-      </c>
-      <c r="O14" s="22">
         <v>71.745145405281605</v>
       </c>
-      <c r="P14" s="22">
-        <v>71.745145405281605</v>
-      </c>
-      <c r="Q14">
-        <v>4250000</v>
-      </c>
-      <c r="R14">
-        <v>772727</v>
-      </c>
-      <c r="S14" s="30">
-        <f t="shared" si="5"/>
-        <v>0.18181811764705882</v>
-      </c>
-      <c r="T14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>4</v>
       </c>
@@ -4624,67 +3493,35 @@
         <v>2</v>
       </c>
       <c r="C15" s="22">
-        <v>68.780923010992595</v>
+        <v>53</v>
       </c>
       <c r="D15" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.780923010992595</v>
+        <v>60.849469145911698</v>
       </c>
       <c r="E15" s="22">
-        <v>96.849469145911698</v>
+        <v>42.013118143223906</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>66.849469145911698</v>
+        <v>153000</v>
       </c>
       <c r="G15" s="22">
-        <v>74.013118143223906</v>
+        <f t="shared" si="5"/>
+        <v>2354</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>52.013118143223906</v>
+        <v>64.354524450846398</v>
       </c>
       <c r="I15" s="22">
-        <v>153000</v>
+        <v>76.879478058719897</v>
       </c>
       <c r="J15" s="22">
-        <f t="shared" si="11"/>
-        <v>2354</v>
+        <v>77.413120964345595</v>
       </c>
       <c r="K15" s="22">
-        <v>64.354524450846398</v>
-      </c>
-      <c r="L15" s="22">
-        <f t="shared" si="3"/>
-        <v>34.354524450846398</v>
-      </c>
-      <c r="M15" s="22">
-        <v>76.879478058719897</v>
-      </c>
-      <c r="N15" s="22">
-        <v>52</v>
-      </c>
-      <c r="O15" s="22">
         <v>77.413120964345595</v>
       </c>
-      <c r="P15" s="22">
-        <v>77.413120964345595</v>
-      </c>
-      <c r="Q15">
-        <v>1020000</v>
-      </c>
-      <c r="R15">
-        <v>204000</v>
-      </c>
-      <c r="S15" s="30">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="T15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20 1027:1028" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:1019" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>4</v>
       </c>
@@ -4692,68 +3529,35 @@
         <v>3</v>
       </c>
       <c r="C16" s="22">
-        <v>62.257253168040002</v>
+        <v>48</v>
       </c>
       <c r="D16" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.257253168040002</v>
+        <v>41.984468616498397</v>
       </c>
       <c r="E16" s="22">
-        <v>41.984468616498397</v>
+        <v>48.138819842053898</v>
       </c>
       <c r="F16" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>41.984468616498397</v>
+        <v>76500</v>
       </c>
       <c r="G16" s="22">
-        <v>48.138819842053898</v>
+        <f t="shared" si="6"/>
+        <v>860</v>
       </c>
       <c r="H16" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>48.138819842053898</v>
+        <v>43.329680357988501</v>
       </c>
       <c r="I16" s="22">
-        <v>76500</v>
+        <v>54.604582033522902</v>
       </c>
       <c r="J16" s="22">
-        <f t="shared" si="12"/>
-        <v>860</v>
+        <v>46.403900034673001</v>
       </c>
       <c r="K16" s="22">
-        <v>43.329680357988501</v>
-      </c>
-      <c r="L16" s="22">
-        <f t="shared" si="3"/>
-        <v>13.329680357988501</v>
-      </c>
-      <c r="M16" s="22">
-        <v>54.604582033522902</v>
-      </c>
-      <c r="N16" s="22">
-        <f t="shared" si="4"/>
-        <v>34.604582033522902</v>
-      </c>
-      <c r="O16" s="22">
         <v>46.403900034673001</v>
       </c>
-      <c r="P16" s="22">
-        <v>46.403900034673001</v>
-      </c>
-      <c r="Q16">
-        <v>510000</v>
-      </c>
-      <c r="R16">
-        <v>77010</v>
-      </c>
-      <c r="S16" s="30">
-        <f t="shared" si="5"/>
-        <v>0.151</v>
-      </c>
-      <c r="T16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>4</v>
       </c>
@@ -4764,63 +3568,32 @@
         <v>0</v>
       </c>
       <c r="D17" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="22">
         <v>0</v>
       </c>
       <c r="F17" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="22">
         <v>0</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K17" s="22">
         <v>0</v>
       </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>102000</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>5</v>
       </c>
@@ -4828,68 +3601,35 @@
         <v>1</v>
       </c>
       <c r="C18" s="22">
-        <v>22.231074944484799</v>
+        <v>62.231074944484803</v>
       </c>
       <c r="D18" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.231074944484799</v>
+        <v>38.697012609257001</v>
       </c>
       <c r="E18" s="22">
-        <v>69.697012609257001</v>
+        <v>56.297651238853298</v>
       </c>
       <c r="F18" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.697012609257001</v>
+        <v>306000</v>
       </c>
       <c r="G18" s="22">
-        <v>56.297651238853298</v>
+        <f t="shared" ref="G18" si="8">ROUND(F18/65,0)</f>
+        <v>4708</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.297651238853298</v>
+        <v>61.951753453723299</v>
       </c>
       <c r="I18" s="22">
-        <v>306000</v>
+        <v>50.357901134535695</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" ref="J18" si="14">ROUND(I18/65,0)</f>
-        <v>4708</v>
+        <v>72.925122913679701</v>
       </c>
       <c r="K18" s="22">
-        <v>61.951753453723299</v>
-      </c>
-      <c r="L18" s="22">
-        <f t="shared" si="3"/>
-        <v>31.951753453723299</v>
-      </c>
-      <c r="M18" s="22">
-        <v>70.357901134535695</v>
-      </c>
-      <c r="N18" s="22">
-        <f t="shared" si="4"/>
-        <v>50.357901134535695</v>
-      </c>
-      <c r="O18" s="22">
         <v>72.925122913679701</v>
       </c>
-      <c r="P18" s="22">
-        <v>72.925122913679701</v>
-      </c>
-      <c r="Q18">
-        <v>1530000</v>
-      </c>
-      <c r="R18">
-        <v>267055</v>
-      </c>
-      <c r="S18" s="30">
-        <f t="shared" si="5"/>
-        <v>0.17454575163398692</v>
-      </c>
-      <c r="T18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>5</v>
       </c>
@@ -4897,68 +3637,35 @@
         <v>2</v>
       </c>
       <c r="C19" s="22">
-        <v>85.284159132519207</v>
+        <v>61.284159132519207</v>
       </c>
       <c r="D19" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.284159132519207</v>
+        <v>45.209841609210699</v>
       </c>
       <c r="E19" s="22">
-        <v>77.209841609210699</v>
+        <v>49.691605117434307</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>37.209841609210699</v>
+        <v>71400</v>
       </c>
       <c r="G19" s="22">
-        <v>74.691605117434307</v>
+        <f t="shared" si="4"/>
+        <v>802</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.691605117434307</v>
+        <v>45.128542033062899</v>
       </c>
       <c r="I19" s="22">
-        <v>71400</v>
+        <v>40.6083335712501</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" si="10"/>
-        <v>802</v>
+        <v>79.604452069660098</v>
       </c>
       <c r="K19" s="22">
-        <v>75.128542033062899</v>
-      </c>
-      <c r="L19" s="22">
-        <f t="shared" si="3"/>
-        <v>45.128542033062899</v>
-      </c>
-      <c r="M19" s="22">
-        <v>60.6083335712501</v>
-      </c>
-      <c r="N19" s="22">
-        <f t="shared" si="4"/>
-        <v>40.6083335712501</v>
-      </c>
-      <c r="O19" s="22">
         <v>79.604452069660098</v>
       </c>
-      <c r="P19" s="22">
-        <v>79.604452069660098</v>
-      </c>
-      <c r="Q19">
-        <v>510000</v>
-      </c>
-      <c r="R19">
-        <v>105060</v>
-      </c>
-      <c r="S19" s="30">
-        <f t="shared" si="5"/>
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="T19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>5</v>
       </c>
@@ -4966,68 +3673,35 @@
         <v>3</v>
       </c>
       <c r="C20" s="22">
-        <v>80.373579741634302</v>
+        <v>56.373579741634302</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>49.373579741634302</v>
+        <v>31.260214003427805</v>
       </c>
       <c r="E20" s="22">
-        <v>67.260214003427805</v>
+        <v>69.354869767093902</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.260214003427805</v>
+        <v>27200</v>
       </c>
       <c r="G20" s="22">
-        <v>69.354869767093902</v>
+        <f t="shared" si="5"/>
+        <v>418</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.354869767093902</v>
+        <v>67.510857032434402</v>
       </c>
       <c r="I20" s="22">
-        <v>27200</v>
+        <v>53.210783543793696</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="11"/>
-        <v>418</v>
+        <v>69.340434867471402</v>
       </c>
       <c r="K20" s="22">
-        <v>67.510857032434402</v>
-      </c>
-      <c r="L20" s="22">
-        <f t="shared" si="3"/>
-        <v>37.510857032434402</v>
-      </c>
-      <c r="M20" s="22">
-        <v>73.210783543793696</v>
-      </c>
-      <c r="N20" s="22">
-        <f t="shared" si="4"/>
-        <v>53.210783543793696</v>
-      </c>
-      <c r="O20" s="22">
         <v>69.340434867471402</v>
       </c>
-      <c r="P20" s="22">
-        <v>69.340434867471402</v>
-      </c>
-      <c r="Q20">
-        <v>170000</v>
-      </c>
-      <c r="R20">
-        <v>29673</v>
-      </c>
-      <c r="S20" s="30">
-        <f t="shared" si="5"/>
-        <v>0.17454705882352942</v>
-      </c>
-      <c r="T20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>5</v>
       </c>
@@ -5038,63 +3712,32 @@
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="22">
         <v>0</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="22">
         <v>0</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
         <v>0</v>
       </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>51000</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>6</v>
       </c>
@@ -5105,64 +3748,32 @@
         <v>61.9691136374283</v>
       </c>
       <c r="D22" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>35.9691136374283</v>
+        <v>51.702838630743301</v>
       </c>
       <c r="E22" s="22">
-        <v>88.702838630743301</v>
+        <v>41.625217876508103</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.702838630743301</v>
+        <v>428400</v>
       </c>
       <c r="G22" s="22">
-        <v>64.625217876508103</v>
+        <f t="shared" si="6"/>
+        <v>4813</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.625217876508103</v>
+        <v>54.3674169802688</v>
       </c>
       <c r="I22" s="22">
-        <v>428400</v>
+        <v>59</v>
       </c>
       <c r="J22" s="22">
-        <f t="shared" si="12"/>
-        <v>4813</v>
+        <v>77.610514266751693</v>
       </c>
       <c r="K22" s="22">
-        <v>84.3674169802688</v>
-      </c>
-      <c r="L22" s="22">
-        <f t="shared" si="3"/>
-        <v>54.3674169802688</v>
-      </c>
-      <c r="M22" s="22">
-        <v>77.949396072080901</v>
-      </c>
-      <c r="N22" s="22">
-        <v>34</v>
-      </c>
-      <c r="O22" s="22">
         <v>77.610514266751693</v>
       </c>
-      <c r="P22" s="22">
-        <v>77.610514266751693</v>
-      </c>
-      <c r="Q22">
-        <v>3060000</v>
-      </c>
-      <c r="R22">
-        <v>593640</v>
-      </c>
-      <c r="S22" s="30">
-        <f t="shared" si="5"/>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="T22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>6</v>
       </c>
@@ -5170,67 +3781,35 @@
         <v>2</v>
       </c>
       <c r="C23" s="22">
-        <v>71.577724868321198</v>
+        <v>51.577724868321198</v>
       </c>
       <c r="D23" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.577724868321198</v>
+        <v>64.768757535454498</v>
       </c>
       <c r="E23" s="22">
-        <v>96.768757535454498</v>
+        <v>53.931914079021894</v>
       </c>
       <c r="F23" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>58.768757535454498</v>
+        <v>110160</v>
       </c>
       <c r="G23" s="22">
-        <v>86.931914079021894</v>
+        <f t="shared" ref="G23" si="9">ROUND(F23/65,0)</f>
+        <v>1695</v>
       </c>
       <c r="H23" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>58.931914079021894</v>
+        <v>66.8563615963252</v>
       </c>
       <c r="I23" s="22">
-        <v>110160</v>
+        <v>60</v>
       </c>
       <c r="J23" s="22">
-        <f t="shared" ref="J23" si="15">ROUND(I23/65,0)</f>
-        <v>1695</v>
+        <v>92.538502730506806</v>
       </c>
       <c r="K23" s="22">
-        <v>96.8563615963252</v>
-      </c>
-      <c r="L23" s="22">
-        <f t="shared" si="3"/>
-        <v>66.8563615963252</v>
-      </c>
-      <c r="M23" s="22">
-        <v>93.2217251301239</v>
-      </c>
-      <c r="N23" s="22">
-        <v>60</v>
-      </c>
-      <c r="O23" s="22">
         <v>92.538502730506806</v>
       </c>
-      <c r="P23" s="22">
-        <v>92.538502730506806</v>
-      </c>
-      <c r="Q23">
-        <v>612000</v>
-      </c>
-      <c r="R23">
-        <v>221850</v>
-      </c>
-      <c r="S23" s="30">
-        <f t="shared" si="5"/>
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="T23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>6</v>
       </c>
@@ -5238,67 +3817,35 @@
         <v>3</v>
       </c>
       <c r="C24" s="22">
-        <v>88.852845347468005</v>
+        <v>51.852845347468005</v>
       </c>
       <c r="D24" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.852845347468005</v>
+        <v>62.964620274854298</v>
       </c>
       <c r="E24" s="22">
-        <v>62.964620274854298</v>
+        <v>35.677555050291204</v>
       </c>
       <c r="F24" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.964620274854298</v>
+        <v>36125</v>
       </c>
       <c r="G24" s="22">
-        <v>72.677555050291204</v>
+        <f t="shared" si="4"/>
+        <v>406</v>
       </c>
       <c r="H24" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>52.677555050291204</v>
+        <v>37.850520482169799</v>
       </c>
       <c r="I24" s="22">
-        <v>36125</v>
+        <v>72.674947069165498</v>
       </c>
       <c r="J24" s="22">
-        <f t="shared" si="10"/>
-        <v>406</v>
+        <v>63.4739516085953</v>
       </c>
       <c r="K24" s="22">
-        <v>67.850520482169799</v>
-      </c>
-      <c r="L24" s="22">
-        <f t="shared" si="3"/>
-        <v>37.850520482169799</v>
-      </c>
-      <c r="M24" s="22">
-        <v>72.674947069165498</v>
-      </c>
-      <c r="N24" s="22">
-        <v>38</v>
-      </c>
-      <c r="O24" s="22">
         <v>63.4739516085953</v>
       </c>
-      <c r="P24" s="22">
-        <v>63.4739516085953</v>
-      </c>
-      <c r="Q24">
-        <v>212500</v>
-      </c>
-      <c r="R24">
-        <v>36550</v>
-      </c>
-      <c r="S24" s="30">
-        <f t="shared" si="5"/>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="T24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
         <v>6</v>
       </c>
@@ -5309,62 +3856,32 @@
         <v>0</v>
       </c>
       <c r="D25" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="22">
         <v>0</v>
       </c>
       <c r="F25" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="22">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="22">
         <v>0</v>
       </c>
       <c r="J25" s="22">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="22">
         <v>0</v>
       </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22">
-        <v>0</v>
-      </c>
-      <c r="P25" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="30">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
         <v>7</v>
       </c>
@@ -5372,68 +3889,35 @@
         <v>1</v>
       </c>
       <c r="C26" s="22">
-        <v>91.640525752255996</v>
+        <v>60</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>54.640525752255996</v>
+        <v>38.438954971368304</v>
       </c>
       <c r="E26" s="22">
-        <v>68.438954971368304</v>
+        <v>71.156200370822802</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.438954971368304</v>
+        <v>484500</v>
       </c>
       <c r="G26" s="22">
-        <v>71.156200370822802</v>
+        <f t="shared" si="6"/>
+        <v>5444</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>49.156200370822802</v>
+        <v>55.9936955986445</v>
       </c>
       <c r="I26" s="22">
-        <v>484500</v>
+        <v>67.898537044262497</v>
       </c>
       <c r="J26" s="22">
-        <f t="shared" si="12"/>
-        <v>5444</v>
+        <v>64.602186123286998</v>
       </c>
       <c r="K26" s="22">
-        <v>55.9936955986445</v>
-      </c>
-      <c r="L26" s="22">
-        <f t="shared" si="3"/>
-        <v>25.9936955986445</v>
-      </c>
-      <c r="M26" s="22">
-        <v>67.898537044262497</v>
-      </c>
-      <c r="N26" s="22">
-        <f t="shared" si="4"/>
-        <v>47.898537044262497</v>
-      </c>
-      <c r="O26" s="22">
         <v>64.602186123286998</v>
       </c>
-      <c r="P26" s="22">
-        <v>64.602186123286998</v>
-      </c>
-      <c r="Q26">
-        <v>2550000</v>
-      </c>
-      <c r="R26">
-        <v>459000</v>
-      </c>
-      <c r="S26" s="30">
-        <f t="shared" si="5"/>
-        <v>0.18</v>
-      </c>
-      <c r="T26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
         <v>7</v>
       </c>
@@ -5444,65 +3928,32 @@
         <v>61.892650443919898</v>
       </c>
       <c r="D27" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.892650443919898</v>
+        <v>39.554799831059498</v>
       </c>
       <c r="E27" s="22">
-        <v>69.554799831059498</v>
+        <v>66.788227650288505</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.554799831059498</v>
+        <v>161500</v>
       </c>
       <c r="G27" s="22">
-        <v>66.788227650288505</v>
+        <f t="shared" si="6"/>
+        <v>1815</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>44.788227650288505</v>
+        <v>65.4995632995129</v>
       </c>
       <c r="I27" s="22">
-        <v>161500</v>
+        <v>39</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" si="12"/>
-        <v>1815</v>
+        <v>15.633211247184301</v>
       </c>
       <c r="K27" s="22">
-        <v>65.4995632995129</v>
-      </c>
-      <c r="L27" s="22">
-        <f t="shared" si="3"/>
-        <v>35.4995632995129</v>
-      </c>
-      <c r="M27" s="22">
-        <v>24.479636771096299</v>
-      </c>
-      <c r="N27" s="22">
-        <f t="shared" si="4"/>
-        <v>4.479636771096299</v>
-      </c>
-      <c r="O27" s="22">
         <v>15.633211247184301</v>
       </c>
-      <c r="P27" s="22">
-        <v>15.633211247184301</v>
-      </c>
-      <c r="Q27">
-        <v>850000</v>
-      </c>
-      <c r="R27">
-        <v>66300</v>
-      </c>
-      <c r="S27" s="30">
-        <f t="shared" si="5"/>
-        <v>7.8E-2</v>
-      </c>
-      <c r="T27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
         <v>7</v>
       </c>
@@ -5510,68 +3961,35 @@
         <v>3</v>
       </c>
       <c r="C28" s="22">
-        <v>65.528185574118496</v>
+        <v>46</v>
       </c>
       <c r="D28" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.528185574118496</v>
+        <v>36.746853346961203</v>
       </c>
       <c r="E28" s="22">
-        <v>76.746853346961203</v>
+        <v>65.255558187510402</v>
       </c>
       <c r="F28" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>40.746853346961203</v>
+        <v>21420</v>
       </c>
       <c r="G28" s="22">
-        <v>65.255558187510402</v>
+        <f t="shared" ref="G28" si="10">ROUND(F28/65,0)</f>
+        <v>330</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.255558187510402</v>
+        <v>61.245828712397703</v>
       </c>
       <c r="I28" s="22">
-        <v>21420</v>
+        <v>60.714118922652702</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" ref="J28" si="16">ROUND(I28/65,0)</f>
-        <v>330</v>
+        <v>63.424365466563799</v>
       </c>
       <c r="K28" s="22">
-        <v>61.245828712397703</v>
-      </c>
-      <c r="L28" s="22">
-        <f t="shared" si="3"/>
-        <v>31.245828712397703</v>
-      </c>
-      <c r="M28" s="22">
-        <v>60.714118922652702</v>
-      </c>
-      <c r="N28" s="22">
-        <f t="shared" si="4"/>
-        <v>40.714118922652702</v>
-      </c>
-      <c r="O28" s="22">
         <v>63.424365466563799</v>
       </c>
-      <c r="P28" s="22">
-        <v>63.424365466563799</v>
-      </c>
-      <c r="Q28">
-        <v>153000</v>
-      </c>
-      <c r="R28">
-        <v>25857</v>
-      </c>
-      <c r="S28" s="30">
-        <f t="shared" si="5"/>
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="T28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="21">
         <v>7</v>
       </c>
@@ -5582,62 +4000,32 @@
         <v>0</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="22">
         <v>0</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="22">
         <v>0</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K29" s="22">
         <v>0</v>
       </c>
-      <c r="L29" s="22">
-        <v>0</v>
-      </c>
-      <c r="M29" s="22">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
-        <v>0</v>
-      </c>
-      <c r="O29" s="22">
-        <v>0</v>
-      </c>
-      <c r="P29" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" s="30">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="21">
         <v>8</v>
       </c>
@@ -5648,64 +4036,32 @@
         <v>51.828549160373697</v>
       </c>
       <c r="D30" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.828549160373697</v>
+        <v>61.702746341161699</v>
       </c>
       <c r="E30" s="22">
-        <v>96.702746341161699</v>
+        <v>57.768472260888899</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>64.702746341161699</v>
+        <v>91800</v>
       </c>
       <c r="G30" s="22">
-        <v>57.768472260888899</v>
+        <f t="shared" si="5"/>
+        <v>1412</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.768472260888899</v>
+        <v>27.1400377481731</v>
       </c>
       <c r="I30" s="22">
-        <v>91800</v>
+        <v>67.947404653372999</v>
       </c>
       <c r="J30" s="22">
-        <f t="shared" si="11"/>
-        <v>1412</v>
+        <v>77.304549130026004</v>
       </c>
       <c r="K30" s="22">
-        <v>27.1400377481731</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
-        <v>87.947404653372999</v>
-      </c>
-      <c r="N30" s="22">
-        <f t="shared" si="4"/>
-        <v>67.947404653372999</v>
-      </c>
-      <c r="O30" s="22">
         <v>77.304549130026004</v>
       </c>
-      <c r="P30" s="22">
-        <v>77.304549130026004</v>
-      </c>
-      <c r="Q30">
-        <v>918000</v>
-      </c>
-      <c r="R30">
-        <v>172584</v>
-      </c>
-      <c r="S30" s="30">
-        <f t="shared" si="5"/>
-        <v>0.188</v>
-      </c>
-      <c r="T30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="21">
         <v>8</v>
       </c>
@@ -5713,68 +4069,35 @@
         <v>2</v>
       </c>
       <c r="C31" s="22">
-        <v>96.131050774746797</v>
+        <v>59</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.131050774746797</v>
+        <v>46.727087450519505</v>
       </c>
       <c r="E31" s="22">
-        <v>78.727087450519505</v>
+        <v>68.2190964326646</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>41.727087450519505</v>
+        <v>42840</v>
       </c>
       <c r="G31" s="22">
-        <v>93.2190964326646</v>
+        <f t="shared" si="6"/>
+        <v>481</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>62.2190964326646</v>
+        <v>62.850448365437003</v>
       </c>
       <c r="I31" s="22">
-        <v>42840</v>
+        <v>72.302470335119096</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" si="12"/>
-        <v>481</v>
+        <v>93.8602391373594</v>
       </c>
       <c r="K31" s="22">
-        <v>92.850448365437003</v>
-      </c>
-      <c r="L31" s="22">
-        <f t="shared" si="3"/>
-        <v>62.850448365437003</v>
-      </c>
-      <c r="M31" s="22">
-        <v>92.302470335119096</v>
-      </c>
-      <c r="N31" s="22">
-        <f t="shared" si="4"/>
-        <v>72.302470335119096</v>
-      </c>
-      <c r="O31" s="22">
         <v>93.8602391373594</v>
       </c>
-      <c r="P31" s="22">
-        <v>93.8602391373594</v>
-      </c>
-      <c r="Q31">
-        <v>306000</v>
-      </c>
-      <c r="R31">
-        <v>126225</v>
-      </c>
-      <c r="S31" s="30">
-        <f t="shared" si="5"/>
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="T31">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="21">
         <v>8</v>
       </c>
@@ -5785,65 +4108,32 @@
         <v>62.569294304886498</v>
       </c>
       <c r="D32" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>35.569294304886498</v>
+        <v>57.016012543431003</v>
       </c>
       <c r="E32" s="22">
-        <v>90.016012543431003</v>
+        <v>46.122041107869407</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.016012543431003</v>
+        <v>6460</v>
       </c>
       <c r="G32" s="22">
-        <v>69.122041107869407</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.122041107869407</v>
+        <v>69.167534751817797</v>
       </c>
       <c r="I32" s="22">
-        <v>6460</v>
+        <v>60.243286427896393</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" si="12"/>
-        <v>73</v>
+        <v>70.036442630307107</v>
       </c>
       <c r="K32" s="22">
-        <v>69.167534751817797</v>
-      </c>
-      <c r="L32" s="22">
-        <f t="shared" si="3"/>
-        <v>39.167534751817797</v>
-      </c>
-      <c r="M32" s="22">
-        <v>80.243286427896393</v>
-      </c>
-      <c r="N32" s="22">
-        <f t="shared" si="4"/>
-        <v>60.243286427896393</v>
-      </c>
-      <c r="O32" s="22">
         <v>70.036442630307107</v>
       </c>
-      <c r="P32" s="22">
-        <v>70.036442630307107</v>
-      </c>
-      <c r="Q32">
-        <v>34000</v>
-      </c>
-      <c r="R32">
-        <v>5996</v>
-      </c>
-      <c r="S32" s="30">
-        <f t="shared" si="5"/>
-        <v>0.1763529411764706</v>
-      </c>
-      <c r="T32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="21">
         <v>8</v>
       </c>
@@ -5854,62 +4144,32 @@
         <v>0</v>
       </c>
       <c r="D33" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="22">
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="22">
+        <f t="shared" ref="G33" si="11">ROUND(F33/65,0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="22">
         <v>0</v>
       </c>
       <c r="J33" s="22">
-        <f t="shared" ref="J33" si="17">ROUND(I33/65,0)</f>
         <v>0</v>
       </c>
       <c r="K33" s="22">
         <v>0</v>
       </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
-        <v>0</v>
-      </c>
-      <c r="O33" s="22">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33" s="30">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="21">
         <v>9</v>
       </c>
@@ -5917,68 +4177,35 @@
         <v>1</v>
       </c>
       <c r="C34" s="22">
-        <v>74.393615526151393</v>
+        <v>47.393615526151393</v>
       </c>
       <c r="D34" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>47.393615526151393</v>
+        <v>55.667260772056807</v>
       </c>
       <c r="E34" s="22">
-        <v>91.667260772056807</v>
+        <v>50.391531818031794</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.667260772056807</v>
+        <v>104040</v>
       </c>
       <c r="G34" s="22">
-        <v>85.391531818031794</v>
+        <f t="shared" si="4"/>
+        <v>1169</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>54.391531818031794</v>
+        <v>45.590851847407606</v>
       </c>
       <c r="I34" s="22">
-        <v>104040</v>
+        <v>62.212439534564695</v>
       </c>
       <c r="J34" s="22">
-        <f t="shared" si="10"/>
-        <v>1169</v>
+        <v>80.503670982540996</v>
       </c>
       <c r="K34" s="22">
-        <v>75.590851847407606</v>
-      </c>
-      <c r="L34" s="22">
-        <f t="shared" si="3"/>
-        <v>45.590851847407606</v>
-      </c>
-      <c r="M34" s="22">
-        <v>82.212439534564695</v>
-      </c>
-      <c r="N34" s="22">
-        <f t="shared" si="4"/>
-        <v>62.212439534564695</v>
-      </c>
-      <c r="O34" s="22">
         <v>80.503670982540996</v>
       </c>
-      <c r="P34" s="22">
-        <v>80.503670982540996</v>
-      </c>
-      <c r="Q34">
-        <v>612000</v>
-      </c>
-      <c r="R34">
-        <v>133416</v>
-      </c>
-      <c r="S34" s="30">
-        <f t="shared" si="5"/>
-        <v>0.218</v>
-      </c>
-      <c r="T34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="21">
         <v>9</v>
       </c>
@@ -5986,68 +4213,35 @@
         <v>2</v>
       </c>
       <c r="C35" s="22">
-        <v>90.081763487992305</v>
+        <v>58.081763487992305</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>64.081763487992305</v>
+        <v>52.366518349443893</v>
       </c>
       <c r="E35" s="22">
-        <v>91.366518349443893</v>
+        <v>59.429520019759295</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>52.366518349443893</v>
+        <v>44064</v>
       </c>
       <c r="G35" s="22">
-        <v>87.429520019759295</v>
+        <f t="shared" si="5"/>
+        <v>678</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>63.429520019759295</v>
+        <v>62.043927751408205</v>
       </c>
       <c r="I35" s="22">
-        <v>44064</v>
+        <v>52.288880221015404</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="11"/>
-        <v>678</v>
+        <v>97.740815592563095</v>
       </c>
       <c r="K35" s="22">
-        <v>92.043927751408205</v>
-      </c>
-      <c r="L35" s="22">
-        <f t="shared" si="3"/>
-        <v>62.043927751408205</v>
-      </c>
-      <c r="M35" s="22">
-        <v>92.288880221015404</v>
-      </c>
-      <c r="N35" s="22">
-        <f t="shared" si="4"/>
-        <v>72.288880221015404</v>
-      </c>
-      <c r="O35" s="22">
         <v>97.740815592563095</v>
       </c>
-      <c r="P35" s="22">
-        <v>97.740815592563095</v>
-      </c>
-      <c r="Q35">
-        <v>367200</v>
-      </c>
-      <c r="R35">
-        <v>156060</v>
-      </c>
-      <c r="S35" s="30">
-        <f t="shared" si="5"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="T35">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="21">
         <v>9</v>
       </c>
@@ -6055,68 +4249,35 @@
         <v>3</v>
       </c>
       <c r="C36" s="22">
-        <v>64.428186667109102</v>
+        <v>43.428186667109102</v>
       </c>
       <c r="D36" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.428186667109102</v>
+        <v>37.411249681110604</v>
       </c>
       <c r="E36" s="22">
-        <v>74.411249681110604</v>
+        <v>67.742289691553907</v>
       </c>
       <c r="F36" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>40.411249681110604</v>
+        <v>15300</v>
       </c>
       <c r="G36" s="22">
-        <v>67.742289691553907</v>
+        <f t="shared" si="6"/>
+        <v>172</v>
       </c>
       <c r="H36" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.742289691553907</v>
+        <v>43.333189645700998</v>
       </c>
       <c r="I36" s="22">
-        <v>15300</v>
+        <v>40.633090857910901</v>
       </c>
       <c r="J36" s="22">
-        <f t="shared" si="12"/>
-        <v>172</v>
+        <v>64.394006762639094</v>
       </c>
       <c r="K36" s="22">
-        <v>73.333189645700998</v>
-      </c>
-      <c r="L36" s="22">
-        <f t="shared" si="3"/>
-        <v>43.333189645700998</v>
-      </c>
-      <c r="M36" s="22">
-        <v>60.633090857910901</v>
-      </c>
-      <c r="N36" s="22">
-        <f t="shared" si="4"/>
-        <v>40.633090857910901</v>
-      </c>
-      <c r="O36" s="22">
         <v>64.394006762639094</v>
       </c>
-      <c r="P36" s="22">
-        <v>64.394006762639094</v>
-      </c>
-      <c r="Q36">
-        <v>85000</v>
-      </c>
-      <c r="R36">
-        <v>14450</v>
-      </c>
-      <c r="S36" s="30">
-        <f t="shared" si="5"/>
-        <v>0.17</v>
-      </c>
-      <c r="T36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="21">
         <v>9</v>
       </c>
@@ -6127,63 +4288,32 @@
         <v>0</v>
       </c>
       <c r="D37" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="22">
         <v>0</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="22">
         <v>0</v>
       </c>
       <c r="J37" s="22">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K37" s="22">
         <v>0</v>
       </c>
-      <c r="L37" s="22">
-        <v>0</v>
-      </c>
-      <c r="M37" s="22">
-        <v>0</v>
-      </c>
-      <c r="N37" s="22">
-        <v>0</v>
-      </c>
-      <c r="O37" s="22">
-        <v>0</v>
-      </c>
-      <c r="P37" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>246500</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="21">
         <v>10</v>
       </c>
@@ -6194,65 +4324,32 @@
         <v>56.6769490027797</v>
       </c>
       <c r="D38" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.6769490027797</v>
+        <v>64.128351521675796</v>
       </c>
       <c r="E38" s="22">
-        <v>64.128351521675796</v>
+        <v>51.288012491385999</v>
       </c>
       <c r="F38" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.128351521675796</v>
+        <v>1020000</v>
       </c>
       <c r="G38" s="22">
-        <v>51.288012491385999</v>
+        <f t="shared" ref="G38" si="12">ROUND(F38/65,0)</f>
+        <v>15692</v>
       </c>
       <c r="H38" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>25.288012491385999</v>
+        <v>48.367446758260797</v>
       </c>
       <c r="I38" s="22">
-        <v>1020000</v>
+        <v>53.0534125281212</v>
       </c>
       <c r="J38" s="22">
-        <f t="shared" ref="J38" si="18">ROUND(I38/65,0)</f>
-        <v>15692</v>
+        <v>56.212263237389102</v>
       </c>
       <c r="K38" s="22">
-        <v>48.367446758260797</v>
-      </c>
-      <c r="L38" s="22">
-        <f t="shared" si="3"/>
-        <v>18.367446758260797</v>
-      </c>
-      <c r="M38" s="22">
-        <v>53.0534125281212</v>
-      </c>
-      <c r="N38" s="22">
-        <f t="shared" si="4"/>
-        <v>33.0534125281212</v>
-      </c>
-      <c r="O38" s="22">
         <v>56.212263237389102</v>
       </c>
-      <c r="P38" s="22">
-        <v>56.212263237389102</v>
-      </c>
-      <c r="Q38">
-        <v>10200000</v>
-      </c>
-      <c r="R38">
-        <v>1693200</v>
-      </c>
-      <c r="S38" s="30">
-        <f t="shared" si="5"/>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="T38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="21">
         <v>10</v>
       </c>
@@ -6263,65 +4360,32 @@
         <v>60.215570741289604</v>
       </c>
       <c r="D39" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.215570741289604</v>
+        <v>73.969388485817205</v>
       </c>
       <c r="E39" s="22">
-        <v>73.969388485817205</v>
+        <v>63.878387979696903</v>
       </c>
       <c r="F39" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.969388485817205</v>
+        <v>121550</v>
       </c>
       <c r="G39" s="22">
-        <v>63.878387979696903</v>
+        <f t="shared" si="4"/>
+        <v>1366</v>
       </c>
       <c r="H39" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>32.878387979696903</v>
+        <v>56.135071949063601</v>
       </c>
       <c r="I39" s="22">
-        <v>121550</v>
+        <v>39.562382342110403</v>
       </c>
       <c r="J39" s="22">
-        <f t="shared" si="10"/>
-        <v>1366</v>
+        <v>63.158440470674599</v>
       </c>
       <c r="K39" s="22">
-        <v>56.135071949063601</v>
-      </c>
-      <c r="L39" s="22">
-        <f t="shared" si="3"/>
-        <v>26.135071949063601</v>
-      </c>
-      <c r="M39" s="22">
-        <v>59.562382342110403</v>
-      </c>
-      <c r="N39" s="22">
-        <f t="shared" si="4"/>
-        <v>39.562382342110403</v>
-      </c>
-      <c r="O39" s="22">
         <v>63.158440470674599</v>
       </c>
-      <c r="P39" s="22">
-        <v>63.158440470674599</v>
-      </c>
-      <c r="Q39">
-        <v>1105000</v>
-      </c>
-      <c r="R39">
-        <v>191165</v>
-      </c>
-      <c r="S39" s="30">
-        <f t="shared" si="5"/>
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="T39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="21">
         <v>10</v>
       </c>
@@ -6329,68 +4393,35 @@
         <v>3</v>
       </c>
       <c r="C40" s="22">
-        <v>83.523928816641401</v>
+        <v>47</v>
       </c>
       <c r="D40" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>51.523928816641401</v>
+        <v>77.560645581297294</v>
       </c>
       <c r="E40" s="22">
-        <v>77.560645581297294</v>
+        <v>57.321888182308797</v>
       </c>
       <c r="F40" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>44.560645581297294</v>
+        <v>153000</v>
       </c>
       <c r="G40" s="22">
-        <v>87.321888182308797</v>
+        <f t="shared" si="5"/>
+        <v>2354</v>
       </c>
       <c r="H40" s="22">
-        <f t="shared" ca="1" si="2"/>
-        <v>56.321888182308797</v>
+        <v>42.304513012730297</v>
       </c>
       <c r="I40" s="22">
-        <v>153000</v>
+        <v>56.265934760098503</v>
       </c>
       <c r="J40" s="22">
-        <f t="shared" si="11"/>
-        <v>2354</v>
+        <v>78.558784909277506</v>
       </c>
       <c r="K40" s="22">
-        <v>72.304513012730297</v>
-      </c>
-      <c r="L40" s="22">
-        <f t="shared" si="3"/>
-        <v>42.304513012730297</v>
-      </c>
-      <c r="M40" s="22">
-        <v>76.265934760098503</v>
-      </c>
-      <c r="N40" s="22">
-        <f t="shared" si="4"/>
-        <v>56.265934760098503</v>
-      </c>
-      <c r="O40" s="22">
         <v>78.558784909277506</v>
       </c>
-      <c r="P40" s="22">
-        <v>78.558784909277506</v>
-      </c>
-      <c r="Q40">
-        <v>850000</v>
-      </c>
-      <c r="R40">
-        <v>159800</v>
-      </c>
-      <c r="S40" s="30">
-        <f t="shared" si="5"/>
-        <v>0.188</v>
-      </c>
-      <c r="T40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="21">
         <v>10</v>
       </c>
@@ -6401,64 +4432,32 @@
         <v>0</v>
       </c>
       <c r="D41" s="22">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="22">
         <v>0</v>
       </c>
       <c r="F41" s="22">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" s="22">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="22">
         <v>0</v>
       </c>
       <c r="J41" s="22">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K41" s="22">
         <v>0</v>
       </c>
-      <c r="L41" s="22">
-        <v>0</v>
-      </c>
-      <c r="M41" s="22">
-        <v>0</v>
-      </c>
-      <c r="N41" s="22">
-        <v>0</v>
-      </c>
-      <c r="O41" s="22">
-        <v>0</v>
-      </c>
-      <c r="P41" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>255000</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P41"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -6641,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
